--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352389.491245081</v>
+        <v>1348841.127205744</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20130484.1436901</v>
+        <v>20130484.14369012</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5895724.968972108</v>
+        <v>5895724.96897211</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.02334477986256</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>0.4192906078700456</v>
       </c>
       <c r="E2" t="n">
         <v>9.146429456440488</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8.056175065232779</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.056175065232779</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F4" t="n">
         <v>9.146429456440488</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700456</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>9.146429456440488</v>
@@ -983,13 +983,13 @@
         <v>8.056175065232777</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>9.146429456440488</v>
@@ -1059,70 +1059,70 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="E7" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="G7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
     </row>
     <row r="8">
@@ -1211,64 +1211,64 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="C9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="T9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="D9" t="n">
+      <c r="U9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,61 +1290,61 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>8.056175065232777</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>179.6693444266296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U11" t="n">
         <v>254.3415373817429</v>
@@ -1432,10 +1432,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>271.1393239791695</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385441</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>159.8385236572077</v>
+        <v>164.7460815102854</v>
       </c>
       <c r="H13" t="n">
         <v>140.7158721966781</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>47.01898421546569</v>
       </c>
       <c r="S13" t="n">
-        <v>170.0317464605369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.5991729320605</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9247947618775</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>2.326906668110782</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>392.8091355309915</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.99772208935953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>227.5862621663905</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>155.0638660193129</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>164.7460815102854</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.0317464605369</v>
+        <v>160.631629645276</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>279.9247947618775</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>72.1087050636269</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>402.7866332493206</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>288.808365946757</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.38386037107767</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>14.18841526260326</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.7460815102854</v>
       </c>
       <c r="H19" t="n">
         <v>140.7158721966781</v>
       </c>
       <c r="I19" t="n">
-        <v>44.52936768101321</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>170.0317464605369</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9247947618775</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>347.2893122038469</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>402.7866332493206</v>
       </c>
       <c r="H20" t="n">
-        <v>288.808365946757</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>53.38386037107767</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.7460815102854</v>
+        <v>126.4779016083028</v>
       </c>
       <c r="H22" t="n">
         <v>140.7158721966781</v>
       </c>
       <c r="I22" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U22" t="n">
-        <v>235.9260796001714</v>
+        <v>279.9247947618775</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2335,10 +2335,10 @@
         <v>402.7866332493206</v>
       </c>
       <c r="H23" t="n">
-        <v>288.808365946757</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>13.99772208935953</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>202.3412167117931</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>328.9780170689626</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2484,19 +2484,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.7460815102854</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.7158721966781</v>
       </c>
       <c r="I25" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>149.0975028595174</v>
       </c>
       <c r="T25" t="n">
-        <v>85.42094655498396</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9247947618775</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>387.453717605525</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>125.340817082218</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.7866332493206</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>288.808365946757</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.6718532715681</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U26" t="n">
         <v>254.3415373817429</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2730,10 +2730,10 @@
         <v>164.7460815102854</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.7158721966781</v>
       </c>
       <c r="I28" t="n">
-        <v>73.9276595449046</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>217.8080151044709</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2800,7 +2800,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>89.00092837469391</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,7 +2809,7 @@
         <v>402.7866332493206</v>
       </c>
       <c r="H29" t="n">
-        <v>288.808365946757</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>13.99772208935953</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>91.6718532715681</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.866923219175</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V29" t="n">
-        <v>83.77465296028517</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2955,7 +2955,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2964,10 +2964,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.7460815102854</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>66.92769155102799</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.1070421619112</v>
+        <v>170.0317464605369</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U31" t="n">
         <v>279.9247947618775</v>
@@ -3012,7 +3012,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3046,7 +3046,7 @@
         <v>402.7866332493206</v>
       </c>
       <c r="H32" t="n">
-        <v>288.808365946757</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>13.99772208935953</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.6718532715681</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.866923219175</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>229.8524061864123</v>
+        <v>279.4848315450491</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>118.3796198456137</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>99.28364672993297</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>170.0317464605369</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.9745530729675</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -3280,7 +3280,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.7866332493206</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>338.9555147872924</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>25.29924656954068</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.7460815102854</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.7158721966781</v>
       </c>
       <c r="I37" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>170.0317464605369</v>
       </c>
       <c r="T37" t="n">
-        <v>233.5991729320605</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9247947618775</v>
       </c>
       <c r="V37" t="n">
-        <v>92.30676561619904</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.7866332493206</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>288.808365946757</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>59.88273103340485</v>
+        <v>182.2271799773032</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3678,10 +3678,10 @@
         <v>164.7460815102854</v>
       </c>
       <c r="H40" t="n">
-        <v>140.7158721966781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>170.0317464605369</v>
@@ -3717,19 +3717,19 @@
         <v>233.5991729320605</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9247947618775</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>10.81913058973256</v>
+        <v>268.0976357273441</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>345.2463379904893</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.7866332493206</v>
       </c>
       <c r="H41" t="n">
-        <v>288.808365946757</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>13.99772208935953</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>209.7847515421977</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>38.95420937027978</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.7460815102854</v>
@@ -3918,7 +3918,7 @@
         <v>140.7158721966781</v>
       </c>
       <c r="I43" t="n">
-        <v>90.16792087730752</v>
+        <v>42.11142636238787</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>170.0317464605369</v>
@@ -3957,16 +3957,16 @@
         <v>279.9247947618775</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>206.8669233638779</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>13.99772208935953</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>91.6718532715681</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.5839842557499</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>105.950281965611</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4155,7 +4155,7 @@
         <v>140.7158721966781</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>170.0317464605369</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>38.61585140340345</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4309,7 +4309,7 @@
         <v>30.40494220167654</v>
       </c>
       <c r="C2" t="n">
-        <v>24.32075555535072</v>
+        <v>24.32075555535073</v>
       </c>
       <c r="D2" t="n">
         <v>23.89722968881533</v>
@@ -4330,25 +4330,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M2" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N2" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="P2" t="n">
         <v>18.47578750200979</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.47578750200979</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27.53075266388587</v>
       </c>
       <c r="Q2" t="n">
         <v>27.53075266388587</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C3" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="D3" t="n">
-        <v>18.10808256022561</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="E3" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F3" t="n">
         <v>9.97053198928341</v>
@@ -4409,10 +4409,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="K3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L3" t="n">
         <v>9.786679518391322</v>
@@ -4424,10 +4424,10 @@
         <v>27.53075266388587</v>
       </c>
       <c r="O3" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P3" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q3" t="n">
         <v>36.58571782576195</v>
@@ -4439,22 +4439,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="U3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="V3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="W3" t="n">
+        <v>36.58571782576195</v>
+      </c>
+      <c r="X3" t="n">
         <v>27.34690019299378</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Y3" t="n">
         <v>27.34690019299378</v>
-      </c>
-      <c r="V3" t="n">
-        <v>27.34690019299378</v>
-      </c>
-      <c r="W3" t="n">
-        <v>27.34690019299378</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18.10808256022561</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>18.10808256022561</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C4" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D4" t="n">
-        <v>18.10808256022561</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E4" t="n">
         <v>9.97053198928341</v>
@@ -4488,16 +4488,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M4" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="N4" t="n">
         <v>18.47578750200979</v>
@@ -4512,28 +4512,28 @@
         <v>36.58571782576195</v>
       </c>
       <c r="R4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="S4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="T4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="U4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="V4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="W4" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="X4" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
     </row>
     <row r="5">
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7317143565152391</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="N5" t="n">
-        <v>9.786679518391322</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="O5" t="n">
-        <v>18.84164468026741</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P5" t="n">
-        <v>18.84164468026741</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.89660984214349</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4631,10 +4631,10 @@
         <v>28.44816725481975</v>
       </c>
       <c r="E6" t="n">
-        <v>28.44816725481975</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F6" t="n">
-        <v>28.44816725481975</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G6" t="n">
         <v>19.20934962205158</v>
@@ -4646,16 +4646,16 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L6" t="n">
-        <v>9.786679518391322</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="M6" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="N6" t="n">
         <v>27.53075266388587</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="C7" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="D7" t="n">
-        <v>36.58571782576195</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E7" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F7" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G7" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H7" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I7" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K7" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L7" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="M7" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="N7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q7" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="S7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W7" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X7" t="n">
-        <v>36.58571782576195</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.40494220167654</v>
+        <v>30.40494220167653</v>
       </c>
       <c r="C8" t="n">
-        <v>24.32075555535073</v>
+        <v>24.32075555535072</v>
       </c>
       <c r="D8" t="n">
         <v>23.89722968881533</v>
@@ -4807,22 +4807,22 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K8" t="n">
-        <v>9.420822340133704</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L8" t="n">
-        <v>9.420822340133704</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M8" t="n">
         <v>9.420822340133704</v>
       </c>
       <c r="N8" t="n">
+        <v>9.420822340133704</v>
+      </c>
+      <c r="O8" t="n">
         <v>18.47578750200979</v>
       </c>
-      <c r="O8" t="n">
-        <v>27.53075266388587</v>
-      </c>
       <c r="P8" t="n">
-        <v>27.53075266388587</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="Q8" t="n">
         <v>27.53075266388587</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.34690019299378</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="C9" t="n">
-        <v>18.10808256022561</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="D9" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="E9" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F9" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="G9" t="n">
-        <v>8.86926492745744</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H9" t="n">
         <v>0.7317143565152391</v>
@@ -4883,13 +4883,13 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J9" t="n">
-        <v>9.420822340133704</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K9" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L9" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="M9" t="n">
         <v>27.53075266388587</v>
@@ -4898,37 +4898,37 @@
         <v>27.53075266388587</v>
       </c>
       <c r="O9" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P9" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R9" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="S9" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="T9" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="U9" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="V9" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="W9" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="X9" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.58571782576195</v>
+        <v>9.97053198928341</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.44816725481975</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="C10" t="n">
         <v>19.20934962205158</v>
@@ -4947,40 +4947,40 @@
         <v>19.20934962205158</v>
       </c>
       <c r="E10" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="F10" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G10" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I10" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K10" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L10" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M10" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N10" t="n">
         <v>27.53075266388587</v>
       </c>
       <c r="O10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="P10" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q10" t="n">
         <v>36.58571782576195</v>
@@ -4992,22 +4992,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="V10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="W10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="X10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>632.2687454658269</v>
+        <v>445.1238983965117</v>
       </c>
       <c r="C11" t="n">
-        <v>222.144154779097</v>
+        <v>445.1238983965117</v>
       </c>
       <c r="D11" t="n">
-        <v>222.144154779097</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="E11" t="n">
-        <v>222.144154779097</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="F11" t="n">
-        <v>222.144154779097</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="G11" t="n">
-        <v>222.144154779097</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="H11" t="n">
         <v>40.65996848957219</v>
@@ -5041,25 +5041,25 @@
         <v>40.65996848957219</v>
       </c>
       <c r="J11" t="n">
-        <v>123.8829088587601</v>
+        <v>450.6587357464893</v>
       </c>
       <c r="K11" t="n">
-        <v>269.1616230400444</v>
+        <v>595.9374499277736</v>
       </c>
       <c r="L11" t="n">
-        <v>772.3287330985003</v>
+        <v>791.1137548447863</v>
       </c>
       <c r="M11" t="n">
-        <v>1002.326100931402</v>
+        <v>1021.111122677689</v>
       </c>
       <c r="N11" t="n">
-        <v>1505.493210989858</v>
+        <v>1256.6986807704</v>
       </c>
       <c r="O11" t="n">
-        <v>1722.551080814954</v>
+        <v>1473.756550595495</v>
       </c>
       <c r="P11" t="n">
-        <v>1895.002936406058</v>
+        <v>1645.037515332036</v>
       </c>
       <c r="Q11" t="n">
         <v>2004.117845380749</v>
@@ -5068,25 +5068,25 @@
         <v>2032.998424478609</v>
       </c>
       <c r="S11" t="n">
-        <v>2032.998424478609</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="T11" t="n">
-        <v>2032.998424478609</v>
+        <v>1726.393599740485</v>
       </c>
       <c r="U11" t="n">
-        <v>1776.087780658667</v>
+        <v>1469.482955920543</v>
       </c>
       <c r="V11" t="n">
-        <v>1426.250225995148</v>
+        <v>1119.645401257023</v>
       </c>
       <c r="W11" t="n">
-        <v>1042.489925130316</v>
+        <v>845.7672962275592</v>
       </c>
       <c r="X11" t="n">
-        <v>1042.489925130316</v>
+        <v>445.1238983965117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1042.489925130316</v>
+        <v>445.1238983965117</v>
       </c>
     </row>
     <row r="12">
@@ -5099,40 +5099,40 @@
         <v>688.0609160866828</v>
       </c>
       <c r="C12" t="n">
-        <v>554.0658448356281</v>
+        <v>554.0658448356286</v>
       </c>
       <c r="D12" t="n">
-        <v>437.1686870550205</v>
+        <v>437.1686870550209</v>
       </c>
       <c r="E12" t="n">
-        <v>316.6758710473486</v>
+        <v>316.6758710473489</v>
       </c>
       <c r="F12" t="n">
-        <v>207.7159912298532</v>
+        <v>207.7159912298534</v>
       </c>
       <c r="G12" t="n">
-        <v>101.7280748665801</v>
+        <v>101.7280748665803</v>
       </c>
       <c r="H12" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="I12" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J12" t="n">
-        <v>326.2741575962937</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K12" t="n">
-        <v>829.4412676547495</v>
+        <v>443.1019802448315</v>
       </c>
       <c r="L12" t="n">
-        <v>1168.11819357194</v>
+        <v>600.8223548910728</v>
       </c>
       <c r="M12" t="n">
-        <v>1360.0099632044</v>
+        <v>1033.371773308636</v>
       </c>
       <c r="N12" t="n">
-        <v>1562.816038178128</v>
+        <v>1236.177848282364</v>
       </c>
       <c r="O12" t="n">
         <v>1739.34495834082</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.7449120089711</v>
+        <v>1096.416062569743</v>
       </c>
       <c r="C13" t="n">
-        <v>503.7449120089711</v>
+        <v>925.3226901314597</v>
       </c>
       <c r="D13" t="n">
-        <v>344.2502673318811</v>
+        <v>765.8280454543697</v>
       </c>
       <c r="E13" t="n">
-        <v>344.2502673318811</v>
+        <v>604.9172303226891</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2502673318811</v>
+        <v>440.2861044332803</v>
       </c>
       <c r="G13" t="n">
-        <v>182.7972131326814</v>
+        <v>273.8759210895577</v>
       </c>
       <c r="H13" t="n">
-        <v>40.65996848957219</v>
+        <v>131.7386764464485</v>
       </c>
       <c r="I13" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J13" t="n">
-        <v>47.96172736373136</v>
+        <v>112.9630909950677</v>
       </c>
       <c r="K13" t="n">
-        <v>91.90814775737782</v>
+        <v>363.1897049744283</v>
       </c>
       <c r="L13" t="n">
-        <v>474.2353949426797</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M13" t="n">
-        <v>892.58487532148</v>
+        <v>1163.86643253853</v>
       </c>
       <c r="N13" t="n">
-        <v>1299.439718792893</v>
+        <v>1570.721276009944</v>
       </c>
       <c r="O13" t="n">
-        <v>1675.396557814653</v>
+        <v>1854.139499317514</v>
       </c>
       <c r="P13" t="n">
         <v>1898.51453781269</v>
@@ -5226,25 +5226,25 @@
         <v>1985.504501028644</v>
       </c>
       <c r="S13" t="n">
-        <v>1813.755262179617</v>
+        <v>1985.504501028644</v>
       </c>
       <c r="T13" t="n">
-        <v>1577.796501642182</v>
+        <v>1749.545740491209</v>
       </c>
       <c r="U13" t="n">
-        <v>1295.044183700891</v>
+        <v>1749.545740491209</v>
       </c>
       <c r="V13" t="n">
-        <v>1021.158438640413</v>
+        <v>1749.545740491209</v>
       </c>
       <c r="W13" t="n">
-        <v>742.0887741492877</v>
+        <v>1747.19532971534</v>
       </c>
       <c r="X13" t="n">
-        <v>503.7449120089711</v>
+        <v>1508.851467575023</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.7449120089711</v>
+        <v>1284.115768963788</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>437.4368730663313</v>
+        <v>1300.294299927293</v>
       </c>
       <c r="C14" t="n">
-        <v>40.65996848957219</v>
+        <v>890.1697092405632</v>
       </c>
       <c r="D14" t="n">
-        <v>40.65996848957219</v>
+        <v>890.1697092405632</v>
       </c>
       <c r="E14" t="n">
-        <v>40.65996848957219</v>
+        <v>475.8294937574599</v>
       </c>
       <c r="F14" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="G14" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="H14" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="I14" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J14" t="n">
-        <v>123.8829088587601</v>
+        <v>450.6587357464893</v>
       </c>
       <c r="K14" t="n">
-        <v>269.1616230400444</v>
+        <v>845.9028710017956</v>
       </c>
       <c r="L14" t="n">
-        <v>520.0313077589019</v>
+        <v>1041.079175918808</v>
       </c>
       <c r="M14" t="n">
-        <v>750.0286755918041</v>
+        <v>1271.07654375171</v>
       </c>
       <c r="N14" t="n">
-        <v>985.616233684515</v>
+        <v>1506.664101844421</v>
       </c>
       <c r="O14" t="n">
-        <v>1202.67410350961</v>
+        <v>1723.721971669517</v>
       </c>
       <c r="P14" t="n">
-        <v>1373.955068246152</v>
+        <v>1895.002936406058</v>
       </c>
       <c r="Q14" t="n">
-        <v>1877.122178304607</v>
+        <v>2004.117845380749</v>
       </c>
       <c r="R14" t="n">
         <v>2032.998424478609</v>
       </c>
       <c r="S14" t="n">
-        <v>2032.998424478609</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="T14" t="n">
-        <v>2032.998424478609</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="U14" t="n">
-        <v>2032.998424478609</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="V14" t="n">
-        <v>2032.998424478609</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="W14" t="n">
-        <v>1649.238123613778</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="X14" t="n">
-        <v>1248.594725782731</v>
+        <v>1710.515479591783</v>
       </c>
       <c r="Y14" t="n">
-        <v>847.6580527308207</v>
+        <v>1710.515479591783</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>688.0609160866828</v>
+        <v>688.0609160866825</v>
       </c>
       <c r="C15" t="n">
-        <v>554.0658448356286</v>
+        <v>554.0658448356281</v>
       </c>
       <c r="D15" t="n">
-        <v>437.1686870550209</v>
+        <v>437.1686870550205</v>
       </c>
       <c r="E15" t="n">
-        <v>316.6758710473489</v>
+        <v>316.6758710473486</v>
       </c>
       <c r="F15" t="n">
-        <v>207.7159912298534</v>
+        <v>207.7159912298532</v>
       </c>
       <c r="G15" t="n">
-        <v>101.7280748665803</v>
+        <v>101.7280748665801</v>
       </c>
       <c r="H15" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="I15" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J15" t="n">
-        <v>326.2741575962937</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K15" t="n">
         <v>692.3973783989063</v>
@@ -5378,7 +5378,7 @@
         <v>1555.194647480573</v>
       </c>
       <c r="Q15" t="n">
-        <v>2030.422796917314</v>
+        <v>2030.422796917313</v>
       </c>
       <c r="R15" t="n">
         <v>2032.998424478609</v>
@@ -5396,13 +5396,13 @@
         <v>1377.325058483218</v>
       </c>
       <c r="W15" t="n">
-        <v>1164.091890219547</v>
+        <v>1164.091890219546</v>
       </c>
       <c r="X15" t="n">
-        <v>987.7659083584394</v>
+        <v>987.7659083584391</v>
       </c>
       <c r="Y15" t="n">
-        <v>828.3639487222695</v>
+        <v>828.3639487222691</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>837.8417517426437</v>
+        <v>845.8427099357768</v>
       </c>
       <c r="C16" t="n">
-        <v>666.7483793043602</v>
+        <v>674.7493374974933</v>
       </c>
       <c r="D16" t="n">
-        <v>510.1182116080846</v>
+        <v>674.7493374974933</v>
       </c>
       <c r="E16" t="n">
-        <v>349.2073964764041</v>
+        <v>513.8385223658129</v>
       </c>
       <c r="F16" t="n">
         <v>349.2073964764041</v>
@@ -5442,19 +5442,19 @@
         <v>363.1897049744283</v>
       </c>
       <c r="L16" t="n">
-        <v>431.5378409247071</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M16" t="n">
-        <v>849.8873213035074</v>
+        <v>1163.86643253853</v>
       </c>
       <c r="N16" t="n">
-        <v>1256.742164774921</v>
+        <v>1238.686974562359</v>
       </c>
       <c r="O16" t="n">
-        <v>1632.69900379668</v>
+        <v>1614.643813584118</v>
       </c>
       <c r="P16" t="n">
-        <v>1898.51453781269</v>
+        <v>1919.916335552412</v>
       </c>
       <c r="Q16" t="n">
         <v>2032.998424478609</v>
@@ -5463,25 +5463,25 @@
         <v>2032.998424478609</v>
       </c>
       <c r="S16" t="n">
-        <v>1861.249185629582</v>
+        <v>1870.744253119745</v>
       </c>
       <c r="T16" t="n">
-        <v>1861.249185629582</v>
+        <v>1870.744253119745</v>
       </c>
       <c r="U16" t="n">
-        <v>1578.496867688292</v>
+        <v>1587.991935178454</v>
       </c>
       <c r="V16" t="n">
-        <v>1304.611122627814</v>
+        <v>1587.991935178454</v>
       </c>
       <c r="W16" t="n">
-        <v>1025.541458136688</v>
+        <v>1308.922270687329</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.541458136688</v>
+        <v>1070.578408547012</v>
       </c>
       <c r="Y16" t="n">
-        <v>1025.541458136688</v>
+        <v>845.8427099357768</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1979.075333194693</v>
+        <v>332.3855906580136</v>
       </c>
       <c r="C17" t="n">
-        <v>1979.075333194693</v>
+        <v>332.3855906580136</v>
       </c>
       <c r="D17" t="n">
-        <v>1574.611403287753</v>
+        <v>332.3855906580136</v>
       </c>
       <c r="E17" t="n">
-        <v>1160.27118780465</v>
+        <v>332.3855906580136</v>
       </c>
       <c r="F17" t="n">
-        <v>739.2407757583375</v>
+        <v>332.3855906580136</v>
       </c>
       <c r="G17" t="n">
         <v>332.3855906580136</v>
@@ -5515,25 +5515,25 @@
         <v>40.65996848957219</v>
       </c>
       <c r="J17" t="n">
-        <v>123.8829088587601</v>
+        <v>306.5719557367462</v>
       </c>
       <c r="K17" t="n">
-        <v>269.1616230400444</v>
+        <v>451.8506699180305</v>
       </c>
       <c r="L17" t="n">
-        <v>767.9094336932546</v>
+        <v>647.0269748350431</v>
       </c>
       <c r="M17" t="n">
-        <v>1271.07654375171</v>
+        <v>877.0243426679453</v>
       </c>
       <c r="N17" t="n">
-        <v>1506.664101844421</v>
+        <v>1112.611900760656</v>
       </c>
       <c r="O17" t="n">
-        <v>1723.721971669517</v>
+        <v>1329.669770585752</v>
       </c>
       <c r="P17" t="n">
-        <v>1895.002936406058</v>
+        <v>1500.950735322293</v>
       </c>
       <c r="Q17" t="n">
         <v>2004.117845380749</v>
@@ -5542,25 +5542,25 @@
         <v>2032.998424478609</v>
       </c>
       <c r="S17" t="n">
-        <v>1979.075333194693</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="T17" t="n">
-        <v>1979.075333194693</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="U17" t="n">
-        <v>1979.075333194693</v>
+        <v>1940.400592891167</v>
       </c>
       <c r="V17" t="n">
-        <v>1979.075333194693</v>
+        <v>1590.563038227648</v>
       </c>
       <c r="W17" t="n">
-        <v>1979.075333194693</v>
+        <v>1206.802737362816</v>
       </c>
       <c r="X17" t="n">
-        <v>1979.075333194693</v>
+        <v>806.1593395317689</v>
       </c>
       <c r="Y17" t="n">
-        <v>1979.075333194693</v>
+        <v>405.222666479859</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>40.65996848957219</v>
       </c>
       <c r="I18" t="n">
-        <v>54.14305930741831</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="J18" t="n">
-        <v>339.7572484141398</v>
+        <v>326.2741575962937</v>
       </c>
       <c r="K18" t="n">
-        <v>443.1019802448315</v>
+        <v>429.6188894269853</v>
       </c>
       <c r="L18" t="n">
-        <v>600.8223548910728</v>
+        <v>587.3392640732266</v>
       </c>
       <c r="M18" t="n">
-        <v>1033.371773308636</v>
+        <v>779.2310337056864</v>
       </c>
       <c r="N18" t="n">
-        <v>1236.177848282363</v>
+        <v>982.037108679414</v>
       </c>
       <c r="O18" t="n">
-        <v>1739.344958340819</v>
+        <v>1158.566028842106</v>
       </c>
       <c r="P18" t="n">
-        <v>1873.195088007365</v>
+        <v>1467.224931003592</v>
       </c>
       <c r="Q18" t="n">
         <v>1942.453080440332</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>883.9063305428949</v>
+        <v>363.5391290648922</v>
       </c>
       <c r="C19" t="n">
-        <v>712.8129581046114</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="D19" t="n">
-        <v>553.3183134275214</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="E19" t="n">
-        <v>392.4074982958409</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="F19" t="n">
-        <v>227.7763724064321</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="G19" t="n">
-        <v>227.7763724064321</v>
+        <v>182.7972131326814</v>
       </c>
       <c r="H19" t="n">
-        <v>85.6391277633229</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="I19" t="n">
         <v>40.65996848957219</v>
@@ -5679,13 +5679,13 @@
         <v>363.1897049744283</v>
       </c>
       <c r="L19" t="n">
-        <v>518.35481317826</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M19" t="n">
-        <v>936.7042935570603</v>
+        <v>1163.86643253853</v>
       </c>
       <c r="N19" t="n">
-        <v>1343.559137028474</v>
+        <v>1570.721276009944</v>
       </c>
       <c r="O19" t="n">
         <v>1719.515976050233</v>
@@ -5697,28 +5697,28 @@
         <v>2032.998424478609</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="S19" t="n">
-        <v>1813.755262179617</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="T19" t="n">
-        <v>1813.755262179617</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.755262179617</v>
+        <v>1342.538107150857</v>
       </c>
       <c r="V19" t="n">
-        <v>1813.755262179617</v>
+        <v>1068.652362090379</v>
       </c>
       <c r="W19" t="n">
-        <v>1534.685597688491</v>
+        <v>789.5826975992532</v>
       </c>
       <c r="X19" t="n">
-        <v>1296.341735548174</v>
+        <v>551.2388354589366</v>
       </c>
       <c r="Y19" t="n">
-        <v>1071.606036936939</v>
+        <v>551.2388354589366</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1979.075333194693</v>
+        <v>1622.77724481412</v>
       </c>
       <c r="C20" t="n">
-        <v>1979.075333194693</v>
+        <v>1212.65265412739</v>
       </c>
       <c r="D20" t="n">
-        <v>1574.611403287753</v>
+        <v>861.8553690729993</v>
       </c>
       <c r="E20" t="n">
-        <v>1160.27118780465</v>
+        <v>447.515153589896</v>
       </c>
       <c r="F20" t="n">
-        <v>739.2407757583375</v>
+        <v>447.515153589896</v>
       </c>
       <c r="G20" t="n">
-        <v>332.3855906580136</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="H20" t="n">
         <v>40.65996848957219</v>
@@ -5767,13 +5767,13 @@
         <v>929.9228538826702</v>
       </c>
       <c r="O20" t="n">
-        <v>1433.089963941126</v>
+        <v>1146.980723707765</v>
       </c>
       <c r="P20" t="n">
-        <v>1604.370928677667</v>
+        <v>1373.955068246152</v>
       </c>
       <c r="Q20" t="n">
-        <v>2004.117845380749</v>
+        <v>1877.122178304607</v>
       </c>
       <c r="R20" t="n">
         <v>2032.998424478609</v>
@@ -5794,10 +5794,10 @@
         <v>2032.998424478609</v>
       </c>
       <c r="X20" t="n">
-        <v>1979.075333194693</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="Y20" t="n">
-        <v>1979.075333194693</v>
+        <v>2032.998424478609</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>40.65996848957219</v>
       </c>
       <c r="I21" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J21" t="n">
-        <v>82.60575362166041</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K21" t="n">
-        <v>185.9504854523521</v>
+        <v>692.3973783989063</v>
       </c>
       <c r="L21" t="n">
-        <v>343.6708600985934</v>
+        <v>850.1177530451477</v>
       </c>
       <c r="M21" t="n">
-        <v>733.0107382239075</v>
+        <v>1042.009522677607</v>
       </c>
       <c r="N21" t="n">
-        <v>1236.177848282363</v>
+        <v>1244.815597651335</v>
       </c>
       <c r="O21" t="n">
-        <v>1739.344958340819</v>
+        <v>1421.344517814027</v>
       </c>
       <c r="P21" t="n">
-        <v>1873.195088007365</v>
+        <v>1555.194647480573</v>
       </c>
       <c r="Q21" t="n">
-        <v>1942.453080440332</v>
+        <v>2030.422796917313</v>
       </c>
       <c r="R21" t="n">
         <v>2032.998424478609</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.416062569743</v>
+        <v>310.5526693026842</v>
       </c>
       <c r="C22" t="n">
-        <v>925.3226901314597</v>
+        <v>310.5526693026842</v>
       </c>
       <c r="D22" t="n">
-        <v>765.8280454543697</v>
+        <v>310.5526693026842</v>
       </c>
       <c r="E22" t="n">
-        <v>604.9172303226891</v>
+        <v>310.5526693026842</v>
       </c>
       <c r="F22" t="n">
-        <v>440.2861044332803</v>
+        <v>310.5526693026842</v>
       </c>
       <c r="G22" t="n">
-        <v>273.8759210895577</v>
+        <v>182.7972131326814</v>
       </c>
       <c r="H22" t="n">
-        <v>131.7386764464485</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="I22" t="n">
         <v>40.65996848957219</v>
@@ -5913,19 +5913,19 @@
         <v>112.9630909950677</v>
       </c>
       <c r="K22" t="n">
-        <v>341.7879072347063</v>
+        <v>363.1897049744283</v>
       </c>
       <c r="L22" t="n">
-        <v>724.1151544200081</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M22" t="n">
-        <v>1142.464634798808</v>
+        <v>1163.86643253853</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.285176822636</v>
+        <v>1570.721276009944</v>
       </c>
       <c r="O22" t="n">
-        <v>1593.242015844396</v>
+        <v>1631.603355612963</v>
       </c>
       <c r="P22" t="n">
         <v>1898.51453781269</v>
@@ -5934,28 +5934,28 @@
         <v>2032.998424478609</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="S22" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="T22" t="n">
-        <v>1985.504501028644</v>
+        <v>1797.039663941174</v>
       </c>
       <c r="U22" t="n">
-        <v>1747.19532971534</v>
+        <v>1514.287345999884</v>
       </c>
       <c r="V22" t="n">
-        <v>1747.19532971534</v>
+        <v>1240.401600939406</v>
       </c>
       <c r="W22" t="n">
-        <v>1747.19532971534</v>
+        <v>961.3319364482804</v>
       </c>
       <c r="X22" t="n">
-        <v>1508.851467575023</v>
+        <v>722.9880743079639</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.115768963788</v>
+        <v>498.2523756967286</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2443.99900559257</v>
+        <v>2138.134270202553</v>
       </c>
       <c r="C23" t="n">
-        <v>2033.87441490584</v>
+        <v>1728.009679515823</v>
       </c>
       <c r="D23" t="n">
-        <v>1629.410484998901</v>
+        <v>1323.545749608884</v>
       </c>
       <c r="E23" t="n">
-        <v>1215.070269515797</v>
+        <v>909.2055341257807</v>
       </c>
       <c r="F23" t="n">
-        <v>794.039857469485</v>
+        <v>488.1751220794682</v>
       </c>
       <c r="G23" t="n">
-        <v>387.1846723691611</v>
+        <v>81.31993697914437</v>
       </c>
       <c r="H23" t="n">
-        <v>95.45905020071966</v>
+        <v>81.31993697914437</v>
       </c>
       <c r="I23" t="n">
         <v>81.31993697914437</v>
       </c>
       <c r="J23" t="n">
-        <v>164.5428773483324</v>
+        <v>212.169612333145</v>
       </c>
       <c r="K23" t="n">
-        <v>309.8215915296166</v>
+        <v>983.8528533999538</v>
       </c>
       <c r="L23" t="n">
-        <v>664.1096847264363</v>
+        <v>1179.029158316966</v>
       </c>
       <c r="M23" t="n">
-        <v>1670.443904843348</v>
+        <v>1409.026526149869</v>
       </c>
       <c r="N23" t="n">
-        <v>2676.778124960259</v>
+        <v>1644.61408424258</v>
       </c>
       <c r="O23" t="n">
-        <v>3629.724729071985</v>
+        <v>2597.560688354305</v>
       </c>
       <c r="P23" t="n">
-        <v>3801.005693808526</v>
+        <v>3390.711220658073</v>
       </c>
       <c r="Q23" t="n">
         <v>3910.120602783216</v>
@@ -6019,22 +6019,22 @@
         <v>4065.996848957218</v>
       </c>
       <c r="T23" t="n">
-        <v>3861.611781571569</v>
+        <v>4065.996848957218</v>
       </c>
       <c r="U23" t="n">
-        <v>3604.701137751626</v>
+        <v>4065.996848957218</v>
       </c>
       <c r="V23" t="n">
-        <v>3254.863583088107</v>
+        <v>3733.695821614832</v>
       </c>
       <c r="W23" t="n">
-        <v>3254.863583088107</v>
+        <v>3349.93552075</v>
       </c>
       <c r="X23" t="n">
-        <v>2854.22018525706</v>
+        <v>2949.292122918953</v>
       </c>
       <c r="Y23" t="n">
-        <v>2854.22018525706</v>
+        <v>2548.355449867043</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2721.059340565292</v>
+        <v>728.7208845762548</v>
       </c>
       <c r="C24" t="n">
-        <v>2587.064269314238</v>
+        <v>594.7258133252004</v>
       </c>
       <c r="D24" t="n">
-        <v>2470.16711153363</v>
+        <v>477.8286555445928</v>
       </c>
       <c r="E24" t="n">
-        <v>2349.674295525958</v>
+        <v>357.3358395369208</v>
       </c>
       <c r="F24" t="n">
-        <v>2240.714415708463</v>
+        <v>248.3759597194254</v>
       </c>
       <c r="G24" t="n">
-        <v>2134.72649934519</v>
+        <v>142.3880433561523</v>
       </c>
       <c r="H24" t="n">
-        <v>2073.658392968182</v>
+        <v>81.31993697914437</v>
       </c>
       <c r="I24" t="n">
-        <v>2073.658392968182</v>
+        <v>94.80302779699049</v>
       </c>
       <c r="J24" t="n">
-        <v>2115.60417810027</v>
+        <v>380.417216903712</v>
       </c>
       <c r="K24" t="n">
-        <v>2218.948909930962</v>
+        <v>645.0876304114972</v>
       </c>
       <c r="L24" t="n">
-        <v>2376.669284577203</v>
+        <v>802.8080050577386</v>
       </c>
       <c r="M24" t="n">
-        <v>2568.561054209663</v>
+        <v>994.6997746901984</v>
       </c>
       <c r="N24" t="n">
-        <v>3574.895274326575</v>
+        <v>1197.505849663926</v>
       </c>
       <c r="O24" t="n">
-        <v>3860.313099296409</v>
+        <v>1374.034769826618</v>
       </c>
       <c r="P24" t="n">
-        <v>3994.163228962956</v>
+        <v>1507.884899493164</v>
       </c>
       <c r="Q24" t="n">
-        <v>4063.421221395923</v>
+        <v>1983.113048929905</v>
       </c>
       <c r="R24" t="n">
-        <v>4065.996848957218</v>
+        <v>2073.658392968181</v>
       </c>
       <c r="S24" t="n">
-        <v>3976.622196200099</v>
+        <v>1984.283740211062</v>
       </c>
       <c r="T24" t="n">
-        <v>3821.319886861997</v>
+        <v>1828.981430872959</v>
       </c>
       <c r="U24" t="n">
-        <v>3624.035009968793</v>
+        <v>1631.696553979756</v>
       </c>
       <c r="V24" t="n">
-        <v>3410.323482961827</v>
+        <v>1417.98502697279</v>
       </c>
       <c r="W24" t="n">
-        <v>3197.090314698156</v>
+        <v>1204.751858709119</v>
       </c>
       <c r="X24" t="n">
-        <v>3020.764332837049</v>
+        <v>1028.425876848011</v>
       </c>
       <c r="Y24" t="n">
-        <v>2861.362373200879</v>
+        <v>869.0239172118414</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1137.076031059315</v>
+        <v>554.0451987376271</v>
       </c>
       <c r="C25" t="n">
-        <v>965.9826586210318</v>
+        <v>382.9518262993436</v>
       </c>
       <c r="D25" t="n">
-        <v>806.4880139439417</v>
+        <v>223.4571816222536</v>
       </c>
       <c r="E25" t="n">
-        <v>645.5771988122613</v>
+        <v>223.4571816222536</v>
       </c>
       <c r="F25" t="n">
-        <v>480.9460729228526</v>
+        <v>223.4571816222536</v>
       </c>
       <c r="G25" t="n">
-        <v>314.5358895791299</v>
+        <v>223.4571816222536</v>
       </c>
       <c r="H25" t="n">
-        <v>172.3986449360207</v>
+        <v>81.31993697914437</v>
       </c>
       <c r="I25" t="n">
         <v>81.31993697914437</v>
@@ -6174,25 +6174,25 @@
         <v>2427.094492155489</v>
       </c>
       <c r="S25" t="n">
-        <v>2427.094492155489</v>
+        <v>2276.490953913552</v>
       </c>
       <c r="T25" t="n">
-        <v>2340.810707756516</v>
+        <v>2040.532193376117</v>
       </c>
       <c r="U25" t="n">
-        <v>2340.810707756516</v>
+        <v>1757.779875434827</v>
       </c>
       <c r="V25" t="n">
-        <v>2066.924962696037</v>
+        <v>1483.894130374349</v>
       </c>
       <c r="W25" t="n">
-        <v>1787.855298204911</v>
+        <v>1204.824465883223</v>
       </c>
       <c r="X25" t="n">
-        <v>1549.511436064595</v>
+        <v>966.4806037429067</v>
       </c>
       <c r="Y25" t="n">
-        <v>1324.77573745336</v>
+        <v>741.7449051316714</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1734.503549648274</v>
+        <v>1631.948176228791</v>
       </c>
       <c r="C26" t="n">
-        <v>1324.378958961544</v>
+        <v>1221.823585542062</v>
       </c>
       <c r="D26" t="n">
-        <v>919.915029054604</v>
+        <v>1221.823585542062</v>
       </c>
       <c r="E26" t="n">
-        <v>919.915029054604</v>
+        <v>807.4833700589583</v>
       </c>
       <c r="F26" t="n">
-        <v>793.3081431129697</v>
+        <v>386.4529580126458</v>
       </c>
       <c r="G26" t="n">
         <v>386.4529580126458</v>
@@ -6226,25 +6226,25 @@
         <v>80.58822262262913</v>
       </c>
       <c r="J26" t="n">
-        <v>163.8111629918171</v>
+        <v>490.5869898795463</v>
       </c>
       <c r="K26" t="n">
-        <v>309.0898771731014</v>
+        <v>1262.270230946355</v>
       </c>
       <c r="L26" t="n">
-        <v>1306.369132128137</v>
+        <v>1457.446535863368</v>
       </c>
       <c r="M26" t="n">
-        <v>2303.648387083172</v>
+        <v>1687.44390369627</v>
       </c>
       <c r="N26" t="n">
-        <v>2965.786668270675</v>
+        <v>1923.031461788981</v>
       </c>
       <c r="O26" t="n">
-        <v>3182.84453809577</v>
+        <v>2875.978065900706</v>
       </c>
       <c r="P26" t="n">
-        <v>3354.125502832311</v>
+        <v>3669.128598204475</v>
       </c>
       <c r="Q26" t="n">
         <v>3873.534884957454</v>
@@ -6253,25 +6253,25 @@
         <v>4029.411131131456</v>
       </c>
       <c r="S26" t="n">
-        <v>3936.813299544014</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="T26" t="n">
-        <v>3936.813299544014</v>
+        <v>3815.404137980775</v>
       </c>
       <c r="U26" t="n">
-        <v>3679.902655724071</v>
+        <v>3558.493494160832</v>
       </c>
       <c r="V26" t="n">
-        <v>3330.065101060552</v>
+        <v>3208.655939497313</v>
       </c>
       <c r="W26" t="n">
-        <v>2946.30480019572</v>
+        <v>2824.895638632481</v>
       </c>
       <c r="X26" t="n">
-        <v>2545.661402364673</v>
+        <v>2424.252240801434</v>
       </c>
       <c r="Y26" t="n">
-        <v>2144.724729312763</v>
+        <v>2023.315567749524</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>80.58822262262913</v>
       </c>
       <c r="I27" t="n">
-        <v>80.58822262262913</v>
+        <v>94.07131344047525</v>
       </c>
       <c r="J27" t="n">
-        <v>122.5340077547174</v>
+        <v>379.6855025471967</v>
       </c>
       <c r="K27" t="n">
-        <v>736.9525208074768</v>
+        <v>644.3559160549821</v>
       </c>
       <c r="L27" t="n">
-        <v>894.6728954537182</v>
+        <v>802.0762907012235</v>
       </c>
       <c r="M27" t="n">
-        <v>1086.564665086178</v>
+        <v>993.9680603336833</v>
       </c>
       <c r="N27" t="n">
-        <v>1602.744292311185</v>
+        <v>1196.774135307411</v>
       </c>
       <c r="O27" t="n">
-        <v>1779.273212473876</v>
+        <v>1373.303055470103</v>
       </c>
       <c r="P27" t="n">
-        <v>1913.123342140423</v>
+        <v>1507.153185136649</v>
       </c>
       <c r="Q27" t="n">
         <v>1982.381334573389</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>977.8027676835263</v>
+        <v>1136.3443167028</v>
       </c>
       <c r="C28" t="n">
-        <v>806.7093952452428</v>
+        <v>965.2509442645166</v>
       </c>
       <c r="D28" t="n">
-        <v>647.2147505681528</v>
+        <v>805.7562995874266</v>
       </c>
       <c r="E28" t="n">
-        <v>486.3039354364723</v>
+        <v>644.845484455746</v>
       </c>
       <c r="F28" t="n">
-        <v>321.6728095470635</v>
+        <v>480.2143585663373</v>
       </c>
       <c r="G28" t="n">
-        <v>155.2626262033409</v>
+        <v>313.8041752226146</v>
       </c>
       <c r="H28" t="n">
-        <v>155.2626262033409</v>
+        <v>171.6669305795054</v>
       </c>
       <c r="I28" t="n">
         <v>80.58822262262913</v>
@@ -6408,28 +6408,28 @@
         <v>2426.362777798974</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.362777798974</v>
+        <v>2378.868854349008</v>
       </c>
       <c r="S28" t="n">
-        <v>2426.362777798974</v>
+        <v>2378.868854349008</v>
       </c>
       <c r="T28" t="n">
-        <v>2190.404017261539</v>
+        <v>2142.910093811573</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.651699320248</v>
+        <v>1860.157775870283</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.651699320248</v>
+        <v>1860.157775870283</v>
       </c>
       <c r="W28" t="n">
-        <v>1628.582034829123</v>
+        <v>1581.088111379157</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.238172688806</v>
+        <v>1361.080015314035</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.502474077571</v>
+        <v>1136.3443167028</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2443.267291236055</v>
+        <v>1827.101381235716</v>
       </c>
       <c r="C29" t="n">
-        <v>2033.142700549325</v>
+        <v>1416.976790548986</v>
       </c>
       <c r="D29" t="n">
-        <v>1628.678770642385</v>
+        <v>1012.512860642047</v>
       </c>
       <c r="E29" t="n">
-        <v>1214.338555159282</v>
+        <v>922.6129329908407</v>
       </c>
       <c r="F29" t="n">
-        <v>793.3081431129697</v>
+        <v>501.5825209445283</v>
       </c>
       <c r="G29" t="n">
-        <v>386.4529580126458</v>
+        <v>94.72733584420442</v>
       </c>
       <c r="H29" t="n">
         <v>94.72733584420442</v>
@@ -6472,43 +6472,43 @@
         <v>1932.773659013661</v>
       </c>
       <c r="M29" t="n">
-        <v>2531.600516117928</v>
+        <v>2162.771026846563</v>
       </c>
       <c r="N29" t="n">
-        <v>2767.188074210639</v>
+        <v>2398.358584939274</v>
       </c>
       <c r="O29" t="n">
-        <v>3720.134678322364</v>
+        <v>3351.305189051</v>
       </c>
       <c r="P29" t="n">
-        <v>3891.415643058905</v>
+        <v>3522.586153787541</v>
       </c>
       <c r="Q29" t="n">
-        <v>4000.530552033596</v>
+        <v>3873.534884957454</v>
       </c>
       <c r="R29" t="n">
         <v>4029.411131131456</v>
       </c>
       <c r="S29" t="n">
-        <v>3936.813299544014</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="T29" t="n">
-        <v>3722.806306393332</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="U29" t="n">
-        <v>3722.806306393332</v>
+        <v>3772.500487311514</v>
       </c>
       <c r="V29" t="n">
-        <v>3638.185444817286</v>
+        <v>3422.662932647995</v>
       </c>
       <c r="W29" t="n">
-        <v>3254.425143952455</v>
+        <v>3038.902631783163</v>
       </c>
       <c r="X29" t="n">
-        <v>3254.425143952455</v>
+        <v>2638.259233952116</v>
       </c>
       <c r="Y29" t="n">
-        <v>2853.488470900545</v>
+        <v>2237.322560900206</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>80.58822262262913</v>
       </c>
       <c r="I30" t="n">
-        <v>80.58822262262913</v>
+        <v>94.07131344047525</v>
       </c>
       <c r="J30" t="n">
-        <v>366.2024117293506</v>
+        <v>379.6855025471967</v>
       </c>
       <c r="K30" t="n">
-        <v>469.5471435600423</v>
+        <v>644.3559160549821</v>
       </c>
       <c r="L30" t="n">
-        <v>1208.046447704997</v>
+        <v>802.0762907012235</v>
       </c>
       <c r="M30" t="n">
-        <v>1399.938217337457</v>
+        <v>993.9680603336833</v>
       </c>
       <c r="N30" t="n">
-        <v>1602.744292311185</v>
+        <v>1196.774135307411</v>
       </c>
       <c r="O30" t="n">
-        <v>1779.273212473876</v>
+        <v>1373.303055470103</v>
       </c>
       <c r="P30" t="n">
-        <v>1913.123342140423</v>
+        <v>1507.153185136649</v>
       </c>
       <c r="Q30" t="n">
         <v>1982.381334573389</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2339.766534091575</v>
+        <v>811.2374482651468</v>
       </c>
       <c r="C31" t="n">
-        <v>2168.673161653291</v>
+        <v>640.1440758268633</v>
       </c>
       <c r="D31" t="n">
-        <v>2009.178516976201</v>
+        <v>640.1440758268633</v>
       </c>
       <c r="E31" t="n">
-        <v>1848.267701844521</v>
+        <v>479.2332606951828</v>
       </c>
       <c r="F31" t="n">
-        <v>1683.636575955112</v>
+        <v>314.602134805774</v>
       </c>
       <c r="G31" t="n">
-        <v>1683.636575955112</v>
+        <v>148.1919514620513</v>
       </c>
       <c r="H31" t="n">
-        <v>1683.636575955112</v>
+        <v>80.58822262262913</v>
       </c>
       <c r="I31" t="n">
-        <v>1683.636575955112</v>
+        <v>80.58822262262913</v>
       </c>
       <c r="J31" t="n">
-        <v>1755.939698460607</v>
+        <v>152.8913451281247</v>
       </c>
       <c r="K31" t="n">
-        <v>2006.166312439968</v>
+        <v>403.1179591074853</v>
       </c>
       <c r="L31" t="n">
-        <v>2388.49355962527</v>
+        <v>785.4452062927871</v>
       </c>
       <c r="M31" t="n">
-        <v>2806.84304000407</v>
+        <v>1203.794686671587</v>
       </c>
       <c r="N31" t="n">
-        <v>3213.697883475484</v>
+        <v>1610.649530143001</v>
       </c>
       <c r="O31" t="n">
-        <v>3589.654722497243</v>
+        <v>1986.60636916476</v>
       </c>
       <c r="P31" t="n">
-        <v>3894.927244465538</v>
+        <v>2291.878891133055</v>
       </c>
       <c r="Q31" t="n">
-        <v>4029.411131131456</v>
+        <v>2426.362777798974</v>
       </c>
       <c r="R31" t="n">
-        <v>3981.917207681491</v>
+        <v>2426.362777798974</v>
       </c>
       <c r="S31" t="n">
-        <v>3826.253528730066</v>
+        <v>2254.613538949946</v>
       </c>
       <c r="T31" t="n">
-        <v>3826.253528730066</v>
+        <v>2018.654778412511</v>
       </c>
       <c r="U31" t="n">
-        <v>3543.501210788775</v>
+        <v>1735.902460471221</v>
       </c>
       <c r="V31" t="n">
-        <v>3269.615465728297</v>
+        <v>1462.016715410743</v>
       </c>
       <c r="W31" t="n">
-        <v>2990.545801237171</v>
+        <v>1462.016715410743</v>
       </c>
       <c r="X31" t="n">
-        <v>2752.201939096854</v>
+        <v>1223.672853270426</v>
       </c>
       <c r="Y31" t="n">
-        <v>2527.466240485619</v>
+        <v>998.9371546591912</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2038.803361329115</v>
+        <v>2151.541669067613</v>
       </c>
       <c r="C32" t="n">
-        <v>1628.678770642385</v>
+        <v>1741.417078380884</v>
       </c>
       <c r="D32" t="n">
-        <v>1628.678770642385</v>
+        <v>1336.953148473944</v>
       </c>
       <c r="E32" t="n">
-        <v>1214.338555159282</v>
+        <v>922.6129329908407</v>
       </c>
       <c r="F32" t="n">
-        <v>793.3081431129697</v>
+        <v>501.5825209445283</v>
       </c>
       <c r="G32" t="n">
-        <v>386.4529580126458</v>
+        <v>94.72733584420442</v>
       </c>
       <c r="H32" t="n">
         <v>94.72733584420442</v>
@@ -6700,52 +6700,52 @@
         <v>80.58822262262913</v>
       </c>
       <c r="J32" t="n">
-        <v>163.8111629918171</v>
+        <v>490.5869898795463</v>
       </c>
       <c r="K32" t="n">
-        <v>309.0898771731014</v>
+        <v>1262.270230946355</v>
       </c>
       <c r="L32" t="n">
-        <v>1306.369132128137</v>
+        <v>1457.446535863368</v>
       </c>
       <c r="M32" t="n">
-        <v>1883.927985975006</v>
+        <v>1687.44390369627</v>
       </c>
       <c r="N32" t="n">
-        <v>2881.207240930042</v>
+        <v>1923.031461788981</v>
       </c>
       <c r="O32" t="n">
-        <v>3098.265110755137</v>
+        <v>2875.978065900706</v>
       </c>
       <c r="P32" t="n">
-        <v>3891.415643058905</v>
+        <v>3354.125502832311</v>
       </c>
       <c r="Q32" t="n">
-        <v>4000.530552033596</v>
+        <v>3873.534884957454</v>
       </c>
       <c r="R32" t="n">
         <v>4029.411131131456</v>
       </c>
       <c r="S32" t="n">
-        <v>3936.813299544014</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="T32" t="n">
-        <v>3722.806306393332</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="U32" t="n">
-        <v>3465.895662573389</v>
+        <v>4029.411131131456</v>
       </c>
       <c r="V32" t="n">
-        <v>3233.721514910347</v>
+        <v>3747.103220479892</v>
       </c>
       <c r="W32" t="n">
-        <v>2849.961214045515</v>
+        <v>3363.34291961506</v>
       </c>
       <c r="X32" t="n">
-        <v>2849.961214045515</v>
+        <v>2962.699521784013</v>
       </c>
       <c r="Y32" t="n">
-        <v>2449.024540993605</v>
+        <v>2561.762848732103</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>80.58822262262913</v>
       </c>
       <c r="I33" t="n">
-        <v>80.58822262262913</v>
+        <v>94.07131344047525</v>
       </c>
       <c r="J33" t="n">
-        <v>122.5340077547174</v>
+        <v>379.6855025471967</v>
       </c>
       <c r="K33" t="n">
-        <v>736.9525208074768</v>
+        <v>644.3559160549821</v>
       </c>
       <c r="L33" t="n">
-        <v>894.6728954537182</v>
+        <v>802.0762907012235</v>
       </c>
       <c r="M33" t="n">
-        <v>1086.564665086178</v>
+        <v>993.9680603336833</v>
       </c>
       <c r="N33" t="n">
-        <v>1289.370740059906</v>
+        <v>1196.774135307411</v>
       </c>
       <c r="O33" t="n">
-        <v>1779.273212473876</v>
+        <v>1373.303055470103</v>
       </c>
       <c r="P33" t="n">
-        <v>1913.123342140423</v>
+        <v>1507.153185136649</v>
       </c>
       <c r="Q33" t="n">
         <v>1982.381334573389</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>672.3735667181003</v>
+        <v>532.1677837740211</v>
       </c>
       <c r="C34" t="n">
-        <v>501.2801942798168</v>
+        <v>361.0744113357376</v>
       </c>
       <c r="D34" t="n">
-        <v>341.7855496027268</v>
+        <v>361.0744113357376</v>
       </c>
       <c r="E34" t="n">
-        <v>180.8747344710463</v>
+        <v>200.1635962040571</v>
       </c>
       <c r="F34" t="n">
-        <v>180.8747344710463</v>
+        <v>80.58822262262913</v>
       </c>
       <c r="G34" t="n">
-        <v>180.8747344710463</v>
+        <v>80.58822262262913</v>
       </c>
       <c r="H34" t="n">
         <v>80.58822262262913</v>
@@ -6882,28 +6882,28 @@
         <v>2426.362777798974</v>
       </c>
       <c r="R34" t="n">
-        <v>2378.868854349008</v>
+        <v>2426.362777798974</v>
       </c>
       <c r="S34" t="n">
-        <v>2207.119615499981</v>
+        <v>2254.613538949946</v>
       </c>
       <c r="T34" t="n">
-        <v>1971.160854962546</v>
+        <v>2018.654778412511</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.408537021256</v>
+        <v>1735.902460471221</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.522791960778</v>
+        <v>1462.016715410743</v>
       </c>
       <c r="W34" t="n">
-        <v>1135.453127469652</v>
+        <v>1182.947050919617</v>
       </c>
       <c r="X34" t="n">
-        <v>897.1092653293356</v>
+        <v>944.6031887793008</v>
       </c>
       <c r="Y34" t="n">
-        <v>672.3735667181003</v>
+        <v>719.8674901680655</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1282.885781119312</v>
+        <v>1690.619116612657</v>
       </c>
       <c r="C35" t="n">
-        <v>1282.885781119312</v>
+        <v>1280.494525925928</v>
       </c>
       <c r="D35" t="n">
-        <v>1282.885781119312</v>
+        <v>876.0305960189879</v>
       </c>
       <c r="E35" t="n">
-        <v>868.5455656362085</v>
+        <v>461.6903805358846</v>
       </c>
       <c r="F35" t="n">
-        <v>447.515153589896</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="G35" t="n">
         <v>40.65996848957219</v>
@@ -6937,28 +6937,28 @@
         <v>40.65996848957219</v>
       </c>
       <c r="J35" t="n">
-        <v>123.8829088587601</v>
+        <v>450.6587357464893</v>
       </c>
       <c r="K35" t="n">
-        <v>269.1616230400444</v>
+        <v>595.9374499277736</v>
       </c>
       <c r="L35" t="n">
-        <v>464.3379279570571</v>
+        <v>791.1137548447863</v>
       </c>
       <c r="M35" t="n">
-        <v>967.5050380155128</v>
+        <v>1021.111122677689</v>
       </c>
       <c r="N35" t="n">
-        <v>1470.672148073969</v>
+        <v>1256.6986807704</v>
       </c>
       <c r="O35" t="n">
-        <v>1723.721971669517</v>
+        <v>1473.756550595495</v>
       </c>
       <c r="P35" t="n">
-        <v>1895.002936406058</v>
+        <v>1645.037515332036</v>
       </c>
       <c r="Q35" t="n">
-        <v>2004.117845380748</v>
+        <v>1877.122178304607</v>
       </c>
       <c r="R35" t="n">
         <v>2032.998424478609</v>
@@ -6976,13 +6976,13 @@
         <v>2032.998424478609</v>
       </c>
       <c r="W35" t="n">
-        <v>2032.998424478609</v>
+        <v>1690.619116612657</v>
       </c>
       <c r="X35" t="n">
-        <v>1632.355026647562</v>
+        <v>1690.619116612657</v>
       </c>
       <c r="Y35" t="n">
-        <v>1632.355026647562</v>
+        <v>1690.619116612657</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>54.14305930741831</v>
       </c>
       <c r="J36" t="n">
-        <v>96.08884443950653</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K36" t="n">
-        <v>199.4335762701982</v>
+        <v>692.3973783989063</v>
       </c>
       <c r="L36" t="n">
-        <v>530.2046632501799</v>
+        <v>850.1177530451477</v>
       </c>
       <c r="M36" t="n">
-        <v>1033.371773308636</v>
+        <v>1042.009522677607</v>
       </c>
       <c r="N36" t="n">
-        <v>1236.177848282363</v>
+        <v>1244.815597651335</v>
       </c>
       <c r="O36" t="n">
-        <v>1739.344958340819</v>
+        <v>1421.344517814027</v>
       </c>
       <c r="P36" t="n">
-        <v>1873.195088007365</v>
+        <v>1555.194647480573</v>
       </c>
       <c r="Q36" t="n">
-        <v>1942.453080440332</v>
+        <v>2030.422796917313</v>
       </c>
       <c r="R36" t="n">
         <v>2032.998424478609</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.278817926634</v>
+        <v>374.7621909910916</v>
       </c>
       <c r="C37" t="n">
-        <v>783.1854454883505</v>
+        <v>374.7621909910916</v>
       </c>
       <c r="D37" t="n">
-        <v>623.6908008112605</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7799856795799</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="F37" t="n">
-        <v>298.1488597901712</v>
+        <v>349.2073964764041</v>
       </c>
       <c r="G37" t="n">
-        <v>131.7386764464485</v>
+        <v>182.7972131326814</v>
       </c>
       <c r="H37" t="n">
-        <v>131.7386764464485</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="I37" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J37" t="n">
-        <v>47.96172736373136</v>
+        <v>112.9630909950677</v>
       </c>
       <c r="K37" t="n">
-        <v>91.90814775737782</v>
+        <v>363.1897049744283</v>
       </c>
       <c r="L37" t="n">
-        <v>474.2353949426797</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M37" t="n">
-        <v>892.58487532148</v>
+        <v>1163.86643253853</v>
       </c>
       <c r="N37" t="n">
-        <v>1217.285176822636</v>
+        <v>1532.359936241377</v>
       </c>
       <c r="O37" t="n">
         <v>1593.242015844396</v>
@@ -7122,25 +7122,25 @@
         <v>2032.998424478609</v>
       </c>
       <c r="S37" t="n">
-        <v>2032.998424478609</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="T37" t="n">
-        <v>1797.039663941174</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="U37" t="n">
-        <v>1514.287345999884</v>
+        <v>1578.496867688292</v>
       </c>
       <c r="V37" t="n">
-        <v>1421.048188811804</v>
+        <v>1304.611122627814</v>
       </c>
       <c r="W37" t="n">
-        <v>1141.978524320678</v>
+        <v>1025.541458136688</v>
       </c>
       <c r="X37" t="n">
-        <v>1141.978524320678</v>
+        <v>787.1975959963713</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.978524320678</v>
+        <v>562.461897385136</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1588.750516509328</v>
+        <v>1592.019922095734</v>
       </c>
       <c r="C38" t="n">
-        <v>1588.750516509328</v>
+        <v>1181.895331409004</v>
       </c>
       <c r="D38" t="n">
-        <v>1588.750516509328</v>
+        <v>1181.895331409004</v>
       </c>
       <c r="E38" t="n">
-        <v>1174.410301026225</v>
+        <v>767.5551159259013</v>
       </c>
       <c r="F38" t="n">
-        <v>753.3798889799127</v>
+        <v>346.5247038795889</v>
       </c>
       <c r="G38" t="n">
         <v>346.5247038795889</v>
@@ -7174,28 +7174,28 @@
         <v>40.65996848957219</v>
       </c>
       <c r="J38" t="n">
-        <v>123.8829088587601</v>
+        <v>450.6587357464893</v>
       </c>
       <c r="K38" t="n">
-        <v>269.1616230400444</v>
+        <v>595.9374499277736</v>
       </c>
       <c r="L38" t="n">
-        <v>772.3287330985002</v>
+        <v>791.1137548447863</v>
       </c>
       <c r="M38" t="n">
-        <v>1002.326100931402</v>
+        <v>1021.111122677689</v>
       </c>
       <c r="N38" t="n">
-        <v>1237.913659024113</v>
+        <v>1256.6986807704</v>
       </c>
       <c r="O38" t="n">
-        <v>1454.971528849209</v>
+        <v>1473.756550595495</v>
       </c>
       <c r="P38" t="n">
-        <v>1895.002936406058</v>
+        <v>1645.037515332036</v>
       </c>
       <c r="Q38" t="n">
-        <v>2004.117845380748</v>
+        <v>1877.122178304607</v>
       </c>
       <c r="R38" t="n">
         <v>2032.998424478609</v>
@@ -7207,19 +7207,19 @@
         <v>2032.998424478609</v>
       </c>
       <c r="U38" t="n">
-        <v>2032.998424478609</v>
+        <v>1776.087780658667</v>
       </c>
       <c r="V38" t="n">
-        <v>2032.998424478609</v>
+        <v>1776.087780658667</v>
       </c>
       <c r="W38" t="n">
-        <v>1649.238123613778</v>
+        <v>1776.087780658667</v>
       </c>
       <c r="X38" t="n">
-        <v>1588.750516509328</v>
+        <v>1592.019922095734</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.750516509328</v>
+        <v>1592.019922095734</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>40.65996848957219</v>
       </c>
       <c r="I39" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J39" t="n">
-        <v>326.2741575962937</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K39" t="n">
-        <v>692.3973783989063</v>
+        <v>604.4276619219249</v>
       </c>
       <c r="L39" t="n">
-        <v>850.1177530451477</v>
+        <v>762.1480365681663</v>
       </c>
       <c r="M39" t="n">
-        <v>1042.009522677607</v>
+        <v>954.0398062006261</v>
       </c>
       <c r="N39" t="n">
-        <v>1244.815597651335</v>
+        <v>1156.845881174354</v>
       </c>
       <c r="O39" t="n">
-        <v>1421.344517814027</v>
+        <v>1333.374801337045</v>
       </c>
       <c r="P39" t="n">
-        <v>1555.194647480573</v>
+        <v>1467.224931003592</v>
       </c>
       <c r="Q39" t="n">
-        <v>2030.422796917313</v>
+        <v>1942.453080440332</v>
       </c>
       <c r="R39" t="n">
         <v>2032.998424478609</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1096.416062569743</v>
+        <v>703.7054652926677</v>
       </c>
       <c r="C40" t="n">
-        <v>925.3226901314597</v>
+        <v>532.6120928543842</v>
       </c>
       <c r="D40" t="n">
-        <v>765.8280454543697</v>
+        <v>532.6120928543842</v>
       </c>
       <c r="E40" t="n">
-        <v>604.9172303226891</v>
+        <v>371.7012777227036</v>
       </c>
       <c r="F40" t="n">
-        <v>440.2861044332803</v>
+        <v>207.0701518332949</v>
       </c>
       <c r="G40" t="n">
-        <v>273.8759210895577</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="H40" t="n">
-        <v>131.7386764464485</v>
+        <v>40.65996848957219</v>
       </c>
       <c r="I40" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J40" t="n">
-        <v>47.96172736373136</v>
+        <v>112.9630909950677</v>
       </c>
       <c r="K40" t="n">
-        <v>298.188341343092</v>
+        <v>363.1897049744283</v>
       </c>
       <c r="L40" t="n">
-        <v>680.5155885283939</v>
+        <v>745.5169521597302</v>
       </c>
       <c r="M40" t="n">
-        <v>1098.865068907194</v>
+        <v>818.9000830242451</v>
       </c>
       <c r="N40" t="n">
-        <v>1217.285176822636</v>
+        <v>1225.754926495659</v>
       </c>
       <c r="O40" t="n">
-        <v>1593.242015844396</v>
+        <v>1601.711765517418</v>
       </c>
       <c r="P40" t="n">
-        <v>1898.51453781269</v>
+        <v>1906.984287485712</v>
       </c>
       <c r="Q40" t="n">
         <v>2032.998424478609</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="S40" t="n">
-        <v>1813.755262179616</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="T40" t="n">
-        <v>1577.796501642182</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="U40" t="n">
-        <v>1295.044183700891</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="V40" t="n">
-        <v>1295.044183700891</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.115768963788</v>
+        <v>1354.484732438264</v>
       </c>
       <c r="X40" t="n">
-        <v>1284.115768963788</v>
+        <v>1116.140870297947</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.115768963788</v>
+        <v>891.405171686712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1163.540593391056</v>
+        <v>882.6846788577838</v>
       </c>
       <c r="C41" t="n">
-        <v>753.416002704326</v>
+        <v>882.6846788577838</v>
       </c>
       <c r="D41" t="n">
-        <v>753.416002704326</v>
+        <v>882.6846788577838</v>
       </c>
       <c r="E41" t="n">
-        <v>753.416002704326</v>
+        <v>882.6846788577838</v>
       </c>
       <c r="F41" t="n">
-        <v>332.3855906580136</v>
+        <v>461.6542668114713</v>
       </c>
       <c r="G41" t="n">
-        <v>332.3855906580136</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="H41" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="I41" t="n">
         <v>40.65996848957219</v>
@@ -7417,22 +7417,22 @@
         <v>269.1616230400444</v>
       </c>
       <c r="L41" t="n">
-        <v>464.3379279570571</v>
+        <v>767.9094336932544</v>
       </c>
       <c r="M41" t="n">
-        <v>694.3352957899593</v>
+        <v>1271.07654375171</v>
       </c>
       <c r="N41" t="n">
-        <v>929.9228538826702</v>
+        <v>1506.664101844421</v>
       </c>
       <c r="O41" t="n">
-        <v>1433.089963941126</v>
+        <v>1723.721971669517</v>
       </c>
       <c r="P41" t="n">
-        <v>1604.370928677667</v>
+        <v>1895.002936406058</v>
       </c>
       <c r="Q41" t="n">
-        <v>1877.122178304607</v>
+        <v>2004.117845380748</v>
       </c>
       <c r="R41" t="n">
         <v>2032.998424478609</v>
@@ -7444,19 +7444,19 @@
         <v>2032.998424478609</v>
       </c>
       <c r="U41" t="n">
-        <v>1776.087780658667</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="V41" t="n">
-        <v>1564.183991222103</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="W41" t="n">
-        <v>1564.183991222103</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="X41" t="n">
-        <v>1163.540593391056</v>
+        <v>1632.355026647562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1163.540593391056</v>
+        <v>1231.418353595652</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>40.65996848957219</v>
       </c>
       <c r="I42" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J42" t="n">
-        <v>326.2741575962937</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K42" t="n">
-        <v>429.6188894269853</v>
+        <v>604.4276619219249</v>
       </c>
       <c r="L42" t="n">
-        <v>587.3392640732266</v>
+        <v>762.1480365681663</v>
       </c>
       <c r="M42" t="n">
-        <v>779.2310337056864</v>
+        <v>954.0398062006261</v>
       </c>
       <c r="N42" t="n">
-        <v>982.037108679414</v>
+        <v>1156.845881174354</v>
       </c>
       <c r="O42" t="n">
-        <v>1485.20421873787</v>
+        <v>1333.374801337045</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.195088007365</v>
+        <v>1467.224931003592</v>
       </c>
       <c r="Q42" t="n">
         <v>1942.453080440332</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>644.2649165552949</v>
+        <v>551.2388354589364</v>
       </c>
       <c r="C43" t="n">
-        <v>644.2649165552949</v>
+        <v>551.2388354589364</v>
       </c>
       <c r="D43" t="n">
-        <v>644.2649165552949</v>
+        <v>391.7441907818464</v>
       </c>
       <c r="E43" t="n">
-        <v>604.9172303226891</v>
+        <v>391.7441907818464</v>
       </c>
       <c r="F43" t="n">
-        <v>440.2861044332803</v>
+        <v>391.7441907818464</v>
       </c>
       <c r="G43" t="n">
-        <v>273.8759210895577</v>
+        <v>225.3340074381237</v>
       </c>
       <c r="H43" t="n">
-        <v>131.7386764464485</v>
+        <v>83.19676279501448</v>
       </c>
       <c r="I43" t="n">
         <v>40.65996848957219</v>
@@ -7572,7 +7572,7 @@
         <v>112.9630909950677</v>
       </c>
       <c r="K43" t="n">
-        <v>363.1897049744283</v>
+        <v>270.6510892602388</v>
       </c>
       <c r="L43" t="n">
         <v>652.9783364455407</v>
@@ -7593,28 +7593,28 @@
         <v>2032.998424478609</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="S43" t="n">
-        <v>1813.755262179616</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="T43" t="n">
-        <v>1577.796501642182</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="U43" t="n">
-        <v>1295.044183700891</v>
+        <v>1342.538107150857</v>
       </c>
       <c r="V43" t="n">
-        <v>1295.044183700891</v>
+        <v>1068.652362090379</v>
       </c>
       <c r="W43" t="n">
-        <v>1295.044183700891</v>
+        <v>789.5826975992529</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.700321560575</v>
+        <v>551.2388354589364</v>
       </c>
       <c r="Y43" t="n">
-        <v>831.9646229493393</v>
+        <v>551.2388354589364</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1286.155186705718</v>
+        <v>684.7859820038012</v>
       </c>
       <c r="C44" t="n">
-        <v>876.0305960189879</v>
+        <v>684.7859820038012</v>
       </c>
       <c r="D44" t="n">
-        <v>876.0305960189879</v>
+        <v>684.7859820038012</v>
       </c>
       <c r="E44" t="n">
-        <v>461.6903805358846</v>
+        <v>684.7859820038012</v>
       </c>
       <c r="F44" t="n">
-        <v>40.65996848957219</v>
+        <v>263.7555699574888</v>
       </c>
       <c r="G44" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="H44" t="n">
-        <v>40.65996848957219</v>
+        <v>54.79908171114747</v>
       </c>
       <c r="I44" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J44" t="n">
-        <v>123.8829088587601</v>
+        <v>450.6587357464893</v>
       </c>
       <c r="K44" t="n">
-        <v>269.1616230400444</v>
+        <v>595.9374499277736</v>
       </c>
       <c r="L44" t="n">
-        <v>464.3379279570571</v>
+        <v>791.1137548447863</v>
       </c>
       <c r="M44" t="n">
-        <v>967.5050380155128</v>
+        <v>1021.111122677689</v>
       </c>
       <c r="N44" t="n">
-        <v>1220.554861611061</v>
+        <v>1256.6986807704</v>
       </c>
       <c r="O44" t="n">
-        <v>1723.721971669517</v>
+        <v>1596.726304593375</v>
       </c>
       <c r="P44" t="n">
-        <v>1895.002936406058</v>
+        <v>1768.007269329916</v>
       </c>
       <c r="Q44" t="n">
-        <v>2004.117845380748</v>
+        <v>1877.122178304607</v>
       </c>
       <c r="R44" t="n">
         <v>2032.998424478609</v>
@@ -7678,22 +7678,22 @@
         <v>1940.400592891167</v>
       </c>
       <c r="T44" t="n">
-        <v>1940.400592891167</v>
+        <v>1726.393599740485</v>
       </c>
       <c r="U44" t="n">
-        <v>1940.400592891167</v>
+        <v>1469.482955920543</v>
       </c>
       <c r="V44" t="n">
-        <v>1940.400592891167</v>
+        <v>1469.482955920543</v>
       </c>
       <c r="W44" t="n">
-        <v>1940.400592891167</v>
+        <v>1085.722655055711</v>
       </c>
       <c r="X44" t="n">
-        <v>1940.400592891167</v>
+        <v>1085.722655055711</v>
       </c>
       <c r="Y44" t="n">
-        <v>1696.376366370207</v>
+        <v>684.7859820038012</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>40.65996848957219</v>
       </c>
       <c r="I45" t="n">
-        <v>40.65996848957219</v>
+        <v>54.14305930741831</v>
       </c>
       <c r="J45" t="n">
-        <v>101.2605518634692</v>
+        <v>339.7572484141398</v>
       </c>
       <c r="K45" t="n">
-        <v>604.4276619219249</v>
+        <v>842.9243584725955</v>
       </c>
       <c r="L45" t="n">
-        <v>762.1480365681663</v>
+        <v>1000.644733118837</v>
       </c>
       <c r="M45" t="n">
-        <v>954.0398062006261</v>
+        <v>1192.536502751297</v>
       </c>
       <c r="N45" t="n">
-        <v>1156.845881174354</v>
+        <v>1395.342577725024</v>
       </c>
       <c r="O45" t="n">
-        <v>1333.374801337045</v>
+        <v>1571.871497887716</v>
       </c>
       <c r="P45" t="n">
-        <v>1467.224931003592</v>
+        <v>1873.195088007365</v>
       </c>
       <c r="Q45" t="n">
         <v>1942.453080440332</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.7698243314438</v>
+        <v>935.5052474380625</v>
       </c>
       <c r="C46" t="n">
-        <v>781.7698243314438</v>
+        <v>764.411874999779</v>
       </c>
       <c r="D46" t="n">
-        <v>674.7493374974933</v>
+        <v>604.9172303226891</v>
       </c>
       <c r="E46" t="n">
-        <v>513.8385223658129</v>
+        <v>604.9172303226891</v>
       </c>
       <c r="F46" t="n">
-        <v>349.2073964764041</v>
+        <v>440.2861044332803</v>
       </c>
       <c r="G46" t="n">
-        <v>182.7972131326814</v>
+        <v>273.8759210895577</v>
       </c>
       <c r="H46" t="n">
-        <v>40.65996848957219</v>
+        <v>131.7386764464485</v>
       </c>
       <c r="I46" t="n">
         <v>40.65996848957219</v>
       </c>
       <c r="J46" t="n">
-        <v>47.96172736373136</v>
+        <v>112.9630909950677</v>
       </c>
       <c r="K46" t="n">
-        <v>270.6510892602388</v>
+        <v>363.1897049744283</v>
       </c>
       <c r="L46" t="n">
         <v>652.9783364455407</v>
@@ -7830,28 +7830,28 @@
         <v>2032.998424478609</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.504501028644</v>
+        <v>2032.998424478609</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.504501028644</v>
+        <v>1861.249185629582</v>
       </c>
       <c r="T46" t="n">
-        <v>1985.504501028644</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="U46" t="n">
-        <v>1985.504501028644</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="V46" t="n">
-        <v>1711.618755968166</v>
+        <v>1625.290425092147</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.54909147704</v>
+        <v>1586.284514583659</v>
       </c>
       <c r="X46" t="n">
-        <v>1194.205229336724</v>
+        <v>1347.940652443342</v>
       </c>
       <c r="Y46" t="n">
-        <v>969.4695307254882</v>
+        <v>1123.204953832107</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
@@ -7990,16 +7990,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>101.6891675077491</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>101.9666523769129</v>
       </c>
       <c r="P2" t="n">
         <v>102.7957927373246</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R2" t="n">
         <v>96.458572271164</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>60.5156682564405</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>65.26095326728954</v>
       </c>
       <c r="M3" t="n">
         <v>66.34116048954718</v>
@@ -8072,13 +8072,13 @@
         <v>62.33982285019048</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.83904796127921</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>60.21002243408518</v>
       </c>
       <c r="K4" t="n">
         <v>52.25036955906683</v>
@@ -8145,10 +8145,10 @@
         <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>60.4895222595492</v>
+        <v>60.85907496485993</v>
       </c>
       <c r="O4" t="n">
         <v>65.22132752943682</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.10046808443771</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>102.4366539134859</v>
       </c>
       <c r="N5" t="n">
         <v>102.0587202130598</v>
       </c>
       <c r="O5" t="n">
-        <v>102.3362050822236</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.18023385559253</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>96.08901956585328</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>60.5156682564405</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L6" t="n">
-        <v>65.26095326728954</v>
+        <v>64.89140056197881</v>
       </c>
       <c r="M6" t="n">
-        <v>66.71071319485792</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>61.97027014487976</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>60.57957513939591</v>
+        <v>60.21002243408518</v>
       </c>
       <c r="K7" t="n">
         <v>61.39679901550731</v>
@@ -8385,7 +8385,7 @@
         <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>60.4895222595492</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
         <v>56.07489807299633</v>
@@ -8394,7 +8394,7 @@
         <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>97.91326642434689</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>102.0671012081752</v>
       </c>
       <c r="N8" t="n">
-        <v>102.0587202130598</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>102.3362050822236</v>
@@ -8473,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R8" t="n">
         <v>96.458572271164</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>60.14611555112977</v>
+        <v>60.5156682564405</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L9" t="n">
-        <v>65.26095326728954</v>
+        <v>64.89140056197881</v>
       </c>
       <c r="M9" t="n">
-        <v>66.71071319485792</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>66.89790845644049</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8555,7 +8555,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>68.1466285618459</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K10" t="n">
-        <v>61.02724631019659</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L10" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>65.41137195522053</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>60.85907496485993</v>
+        <v>60.4895222595492</v>
       </c>
       <c r="O10" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P10" t="n">
         <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.50595511636605</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>311.1018233751951</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>270.2823757229747</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.18271803491217</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>252.4903243171939</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>403.8609881088527</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>182.7843952231813</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>243.0885341263672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>329.9375655512767</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
         <v>317.1506174091142</v>
@@ -8862,10 +8862,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>318.2573327462026</v>
+        <v>224.7839835399506</v>
       </c>
       <c r="P13" t="n">
-        <v>180.5484257604659</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>252.4903243171939</v>
       </c>
       <c r="L14" t="n">
-        <v>56.25593919378264</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>398.0325263472376</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4328171433545</v>
+        <v>251.8135334889645</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>223.6772682028622</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>105.9314772385003</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>184.5343907858445</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>306.6378845820177</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>275.9290325510643</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>398.0325263472376</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>6.146174779647758</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
@@ -9251,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>243.0885341263668</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>329.9375655512767</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>176.5745176716563</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9327,7 +9327,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>87.6939113672251</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,7 +9336,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>88.80062670431334</v>
       </c>
       <c r="P19" t="n">
         <v>263.5328115890082</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>288.99923255895</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>56.25593919378264</v>
       </c>
       <c r="Q20" t="n">
-        <v>293.5676845741322</v>
+        <v>398.0325263472376</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>251.8135334889645</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>199.442533831166</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>303.3949849340689</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>329.9375655512767</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>186.745854389891</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,13 +9570,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>224.7839835399506</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>48.10781311597239</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>160.7189780604111</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1786386707165</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>778.5319818426269</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.9552340172663</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>811.6445910537211</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>109.9887927344878</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>810.2050000384069</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>775.032209214276</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>430.8593162573655</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>96.25391694776673</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>162.9552340172664</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>316.5389416679585</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10120,7 +10120,7 @@
         <v>810.2050000384069</v>
       </c>
       <c r="M29" t="n">
-        <v>372.5550396680445</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>244.2765880759828</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.9552340172664</v>
       </c>
       <c r="L30" t="n">
-        <v>586.6453833320338</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>810.2050000384069</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>351.0722080949166</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>769.3855523861864</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507341</v>
+        <v>309.9661335303672</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>162.9552340172664</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>316.5389416679584</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>275.9290325510642</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>270.2823757229746</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>36.35550885904297</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>124.2118727251318</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>251.8135334889645</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7986993270106</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>314.4195357838342</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>329.9375655512767</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10755,10 +10755,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>252.4037974518469</v>
+        <v>296.6393552313318</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>311.1018233751951</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>271.4650937578866</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>124.2118727251318</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>265.4328171433545</v>
+        <v>162.9552340172662</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
         <v>208.3638319047618</v>
@@ -10989,10 +10989,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>44.03996554708507</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
@@ -11001,7 +11001,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>118.9941520533483</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>306.6378845820175</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>275.9290325510643</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>288.9992325589499</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.2892329820702</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.9552340172662</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>329.9375655512767</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>256.7078177807572</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,10 +11220,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>114.8904826985097</v>
       </c>
       <c r="L43" t="n">
-        <v>223.6772682028621</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
         <v>348.4508580952379</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>275.9290325510642</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>17.63865202306766</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>288.9992325589499</v>
+        <v>124.2118727251317</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.146174779647758</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>18.84323054728158</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>403.8609881088526</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>169.1651115687912</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>180.5484257604656</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>223.6772682028621</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23275,7 +23275,7 @@
         <v>402.7866332493206</v>
       </c>
       <c r="H11" t="n">
-        <v>109.1390215201274</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I11" t="n">
         <v>13.99772208935953</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.6718532715681</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.866923219175</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>108.7833738770136</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.907557853077748</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>170.0317464605369</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9247947618775</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>273.9520611781036</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>13.2142092488711</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>402.7866332493206</v>
@@ -23515,7 +23515,7 @@
         <v>288.808365946757</v>
       </c>
       <c r="I14" t="n">
-        <v>13.99772208935953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.6718532715681</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.866923219175</v>
@@ -23557,13 +23557,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>169.0507016863465</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.83583221100622</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>47.01898421546569</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.400116815260958</v>
       </c>
       <c r="T16" t="n">
         <v>233.5991729320605</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>334.0102628042176</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.7866332493206</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>38.28799290049042</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.866923219175</v>
@@ -23791,16 +23791,16 @@
         <v>254.3415373817429</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>155.1940234512974</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.7460815102854</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>45.63855319629432</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.5991729320605</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9247947618775</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>53.12997840402312</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I20" t="n">
         <v>13.99772208935953</v>
@@ -24034,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>343.2531034816593</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>38.26817990198269</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S22" t="n">
         <v>170.0317464605369</v>
       </c>
       <c r="T22" t="n">
-        <v>233.5991729320605</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>43.99871516170612</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>13.99772208935953</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>91.6718532715681</v>
       </c>
       <c r="T23" t="n">
-        <v>9.525706507381898</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>17.36116204792148</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.7460815102854</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>47.01898421546569</v>
       </c>
       <c r="S25" t="n">
-        <v>170.0317464605369</v>
+        <v>20.93424360101949</v>
       </c>
       <c r="T25" t="n">
-        <v>148.1782263770766</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9247947618775</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>18.6652502623196</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>291.4792908436313</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.7866332493206</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T26" t="n">
-        <v>211.866923219175</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.7158721966781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>16.24026133240292</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.01898421546569</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>170.0317464605369</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>18.15240841444256</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>321.1958849535783</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>262.564526156599</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.7460815102854</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.7158721966781</v>
+        <v>73.78818064565014</v>
       </c>
       <c r="I31" t="n">
         <v>90.16792087730752</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S31" t="n">
-        <v>15.9247042986257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5991729320605</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>91.6718532715681</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.866923219175</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V32" t="n">
-        <v>116.4867729304718</v>
+        <v>66.85434757183504</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>44.60519478490096</v>
       </c>
       <c r="G34" t="n">
         <v>164.7460815102854</v>
       </c>
       <c r="H34" t="n">
-        <v>41.43222546674517</v>
+        <v>140.7158721966781</v>
       </c>
       <c r="I34" t="n">
         <v>90.16792087730752</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60.14441479487709</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.7866332493206</v>
       </c>
       <c r="H35" t="n">
         <v>288.808365946757</v>
@@ -25216,10 +25216,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>40.96718306889073</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>132.6004516607784</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.7158721966781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>47.01898421546569</v>
       </c>
       <c r="S37" t="n">
-        <v>170.0317464605369</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.5991729320605</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>178.8401219936742</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.7866332493206</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>211.866923219175</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>336.7542328193321</v>
+        <v>214.4097838754338</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.7158721966781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>90.16792087730752</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9247947618775</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>265.4598372564818</v>
+        <v>8.181332118870273</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>60.87262987735528</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.7866332493206</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>288.808365946757</v>
       </c>
       <c r="I41" t="n">
-        <v>13.99772208935953</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>211.866923219175</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3415373817429</v>
       </c>
       <c r="V41" t="n">
-        <v>136.5544275746864</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.3474976100839</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>48.05649451491966</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.7866332493206</v>
+        <v>195.9197098854427</v>
       </c>
       <c r="H44" t="n">
         <v>288.808365946757</v>
       </c>
       <c r="I44" t="n">
-        <v>13.99772208935953</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.866923219175</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3415373817429</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>155.3433220656409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>51.94941626470811</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>90.16792087730752</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>47.01898421546569</v>
       </c>
       <c r="S46" t="n">
-        <v>170.0317464605369</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.5991729320605</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9247947618775</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>237.6631164428109</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>424382.1037488857</v>
+        <v>424382.1037488858</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>424382.1037488858</v>
+        <v>424382.1037488857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>424382.1037488858</v>
+        <v>424382.1037488859</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>636886.8151265702</v>
+        <v>636886.8151265701</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636886.8151265701</v>
+        <v>636886.8151265702</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>636886.8151265701</v>
+        <v>636886.8151265702</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>424382.1037488856</v>
+        <v>424382.1037488857</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>424382.1037488856</v>
+        <v>424382.1037488857</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>424382.1037488857</v>
+        <v>424382.1037488856</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>520668.1094139719</v>
+      </c>
+      <c r="C2" t="n">
+        <v>520668.1094139722</v>
+      </c>
+      <c r="D2" t="n">
         <v>520668.1094139721</v>
       </c>
-      <c r="C2" t="n">
-        <v>520668.1094139721</v>
-      </c>
-      <c r="D2" t="n">
-        <v>520668.1094139718</v>
-      </c>
       <c r="E2" t="n">
-        <v>320601.1316743033</v>
+        <v>320601.1316743031</v>
       </c>
       <c r="F2" t="n">
-        <v>320601.1316743033</v>
+        <v>320601.1316743031</v>
       </c>
       <c r="G2" t="n">
-        <v>320601.1316743033</v>
+        <v>320601.131674303</v>
       </c>
       <c r="H2" t="n">
         <v>320601.1316743031</v>
       </c>
       <c r="I2" t="n">
-        <v>452922.6367962636</v>
+        <v>452922.6367962637</v>
       </c>
       <c r="J2" t="n">
-        <v>450662.2856847512</v>
+        <v>450662.2856847513</v>
       </c>
       <c r="K2" t="n">
         <v>450662.2856847512</v>
@@ -26346,16 +26346,16 @@
         <v>450662.2856847512</v>
       </c>
       <c r="M2" t="n">
-        <v>320601.1316743031</v>
+        <v>320601.131674303</v>
       </c>
       <c r="N2" t="n">
         <v>320601.1316743031</v>
       </c>
       <c r="O2" t="n">
-        <v>320601.1316743031</v>
+        <v>320601.131674303</v>
       </c>
       <c r="P2" t="n">
-        <v>320601.1316743031</v>
+        <v>320601.1316743032</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>348960.5275260956</v>
+      </c>
+      <c r="C4" t="n">
         <v>348960.5275260957</v>
       </c>
-      <c r="C4" t="n">
-        <v>348960.5275260956</v>
-      </c>
       <c r="D4" t="n">
-        <v>348960.5275260956</v>
+        <v>348960.5275260957</v>
       </c>
       <c r="E4" t="n">
         <v>44108.98930167266</v>
       </c>
       <c r="F4" t="n">
-        <v>44108.98930167265</v>
+        <v>44108.98930167266</v>
       </c>
       <c r="G4" t="n">
         <v>44108.98930167266</v>
@@ -26450,10 +26450,10 @@
         <v>102414.8963961942</v>
       </c>
       <c r="M4" t="n">
-        <v>44108.98930167263</v>
+        <v>44108.98930167264</v>
       </c>
       <c r="N4" t="n">
-        <v>44108.98930167265</v>
+        <v>44108.98930167264</v>
       </c>
       <c r="O4" t="n">
         <v>44108.98930167264</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134458.7000981942</v>
+        <v>134456.9640097881</v>
       </c>
       <c r="C6" t="n">
-        <v>137523.8789769249</v>
+        <v>137522.1428885191</v>
       </c>
       <c r="D6" t="n">
-        <v>137523.8789769246</v>
+        <v>137522.1428885189</v>
       </c>
       <c r="E6" t="n">
-        <v>-284075.38703481</v>
+        <v>-284702.3324286525</v>
       </c>
       <c r="F6" t="n">
-        <v>235534.7921575863</v>
+        <v>234907.8467637438</v>
       </c>
       <c r="G6" t="n">
-        <v>235534.7921575863</v>
+        <v>234907.8467637437</v>
       </c>
       <c r="H6" t="n">
-        <v>235534.7921575862</v>
+        <v>234907.8467637438</v>
       </c>
       <c r="I6" t="n">
-        <v>142481.2640536349</v>
+        <v>142267.8233632988</v>
       </c>
       <c r="J6" t="n">
-        <v>276944.5659323894</v>
+        <v>276724.0616448299</v>
       </c>
       <c r="K6" t="n">
-        <v>276944.5659323895</v>
+        <v>276724.0616448298</v>
       </c>
       <c r="L6" t="n">
-        <v>276944.5659323895</v>
+        <v>276724.0616448298</v>
       </c>
       <c r="M6" t="n">
-        <v>235534.7921575862</v>
+        <v>234907.8467637436</v>
       </c>
       <c r="N6" t="n">
-        <v>235534.7921575862</v>
+        <v>234907.8467637439</v>
       </c>
       <c r="O6" t="n">
-        <v>235534.7921575862</v>
+        <v>234907.8467637438</v>
       </c>
       <c r="P6" t="n">
-        <v>235534.7921575863</v>
+        <v>234907.8467637439</v>
       </c>
     </row>
   </sheetData>
@@ -27469,7 +27469,7 @@
         <v>111.2317127823625</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>98.72385156287997</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -27511,7 +27511,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>148.6020157184214</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -27545,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>151.2455319151309</v>
+        <v>150.1552775239232</v>
       </c>
       <c r="F4" t="n">
         <v>153.8383851740741</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>76.36381607612157</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27602,7 +27602,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>226.8139940624729</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27703,13 +27703,13 @@
         <v>107.6720111375687</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>110.1414583911548</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>96.77378210236419</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>60.89331137820062</v>
@@ -27779,22 +27779,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>148.7532687738786</v>
       </c>
       <c r="E7" t="n">
-        <v>151.245531915131</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8383851740741</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>156.4314577072715</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>106.0361559802766</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27356168491386</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27839,10 +27839,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>226.8139940624729</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>214.4321665598902</v>
       </c>
     </row>
     <row r="8">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.7535728527903</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>123.5086910821033</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>106.581756746361</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -27949,7 +27949,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>61.98356576940833</v>
+        <v>60.89331137820062</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>98.85393472160148</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>148.6020157184214</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>186.230873296723</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.7665342648712</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>160.2360092574602</v>
+        <v>161.3262636486679</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>150.1552775239232</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>153.8383851740741</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9649511861574</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>106.0361559802766</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.0068221766244</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>8.776876751129763</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R2" t="n">
         <v>9.146429456440488</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>8.776876751129763</v>
@@ -34792,13 +34792,13 @@
         <v>9.146429456440488</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,10 +34865,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.776876751129763</v>
       </c>
       <c r="O4" t="n">
         <v>9.146429456440488</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="N5" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="O5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L6" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="M6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K7" t="n">
         <v>9.146429456440488</v>
@@ -35105,7 +35105,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>8.776876751129763</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>9.146429456440488</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R8" t="n">
         <v>9.146429456440488</v>
@@ -35251,23 +35251,23 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L9" t="n">
+        <v>8.776876751129761</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M9" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K10" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.776876751129761</v>
+      </c>
+      <c r="O10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N10" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K11" t="n">
         <v>146.7461759406912</v>
       </c>
       <c r="L11" t="n">
-        <v>508.2496061196524</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M11" t="n">
         <v>232.3205735685881</v>
       </c>
       <c r="N11" t="n">
-        <v>508.2496061196524</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O11" t="n">
         <v>219.2503735607024</v>
       </c>
       <c r="P11" t="n">
-        <v>174.193793526368</v>
+        <v>173.0110754914558</v>
       </c>
       <c r="Q11" t="n">
-        <v>110.2170797724148</v>
+        <v>362.7074040896086</v>
       </c>
       <c r="R11" t="n">
         <v>29.17230211905141</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J12" t="n">
         <v>288.4991809158803</v>
       </c>
       <c r="K12" t="n">
-        <v>508.2496061196524</v>
+        <v>104.3886180107997</v>
       </c>
       <c r="L12" t="n">
-        <v>342.0979049668594</v>
+        <v>159.3135097436781</v>
       </c>
       <c r="M12" t="n">
-        <v>193.830070335818</v>
+        <v>436.9186044621853</v>
       </c>
       <c r="N12" t="n">
         <v>204.8546211855834</v>
       </c>
       <c r="O12" t="n">
-        <v>178.3120405683756</v>
+        <v>508.2496061196524</v>
       </c>
       <c r="P12" t="n">
         <v>135.2021511783295</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.37551401430219</v>
+        <v>73.03345707625814</v>
       </c>
       <c r="K13" t="n">
-        <v>44.39032362994593</v>
+        <v>252.7541555347077</v>
       </c>
       <c r="L13" t="n">
         <v>386.189138571012</v>
@@ -35582,10 +35582,10 @@
         <v>410.9644883549632</v>
       </c>
       <c r="O13" t="n">
-        <v>379.7543828502619</v>
+        <v>286.2810336440099</v>
       </c>
       <c r="P13" t="n">
-        <v>225.3716969677149</v>
+        <v>44.823271207249</v>
       </c>
       <c r="Q13" t="n">
         <v>135.8423097635546</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K14" t="n">
-        <v>146.7461759406912</v>
+        <v>399.2365002578852</v>
       </c>
       <c r="L14" t="n">
-        <v>253.4037219382399</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M14" t="n">
         <v>232.3205735685881</v>
@@ -35667,10 +35667,10 @@
         <v>173.0110754914558</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.2496061196524</v>
+        <v>110.2170797724148</v>
       </c>
       <c r="R14" t="n">
-        <v>157.4507537111131</v>
+        <v>29.17230211905141</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J15" t="n">
         <v>288.4991809158803</v>
       </c>
       <c r="K15" t="n">
-        <v>369.8214351541542</v>
+        <v>356.2021514997642</v>
       </c>
       <c r="L15" t="n">
         <v>159.3135097436781</v>
@@ -35810,22 +35810,22 @@
         <v>252.7541555347077</v>
       </c>
       <c r="L16" t="n">
-        <v>69.03852116189779</v>
+        <v>386.189138571012</v>
       </c>
       <c r="M16" t="n">
         <v>422.575232705859</v>
       </c>
       <c r="N16" t="n">
-        <v>410.9644883549632</v>
+        <v>75.57630507457377</v>
       </c>
       <c r="O16" t="n">
         <v>379.7543828502619</v>
       </c>
       <c r="P16" t="n">
-        <v>268.5005394101112</v>
+        <v>308.3560827962572</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.8423097635546</v>
+        <v>114.2243322486841</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>84.06357613049289</v>
+        <v>268.5979669163374</v>
       </c>
       <c r="K17" t="n">
         <v>146.7461759406912</v>
       </c>
       <c r="L17" t="n">
-        <v>503.7856673264749</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M17" t="n">
-        <v>508.2496061196524</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N17" t="n">
         <v>237.9672303966777</v>
@@ -35904,7 +35904,7 @@
         <v>173.0110754914558</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.2170797724148</v>
+        <v>508.2496061196524</v>
       </c>
       <c r="R17" t="n">
         <v>29.17230211905141</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>13.61928365439002</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>288.4991809158803</v>
@@ -35971,19 +35971,19 @@
         <v>159.3135097436781</v>
       </c>
       <c r="M18" t="n">
-        <v>436.9186044621848</v>
+        <v>193.830070335818</v>
       </c>
       <c r="N18" t="n">
         <v>204.8546211855834</v>
       </c>
       <c r="O18" t="n">
-        <v>508.2496061196524</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P18" t="n">
-        <v>135.2021511783295</v>
+        <v>311.7766688499858</v>
       </c>
       <c r="Q18" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R18" t="n">
         <v>91.45994347300703</v>
@@ -36047,7 +36047,7 @@
         <v>252.7541555347077</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7324325291229</v>
+        <v>386.189138571012</v>
       </c>
       <c r="M19" t="n">
         <v>422.575232705859</v>
@@ -36056,7 +36056,7 @@
         <v>410.9644883549632</v>
       </c>
       <c r="O19" t="n">
-        <v>379.7543828502619</v>
+        <v>150.2976768083727</v>
       </c>
       <c r="P19" t="n">
         <v>308.3560827962572</v>
@@ -36135,16 +36135,16 @@
         <v>237.9672303966777</v>
       </c>
       <c r="O20" t="n">
+        <v>219.2503735607024</v>
+      </c>
+      <c r="P20" t="n">
+        <v>229.2670146852384</v>
+      </c>
+      <c r="Q20" t="n">
         <v>508.2496061196524</v>
       </c>
-      <c r="P20" t="n">
-        <v>173.0110754914558</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>403.784764346547</v>
-      </c>
       <c r="R20" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J21" t="n">
-        <v>42.36947993140225</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K21" t="n">
-        <v>104.3886180107997</v>
+        <v>356.2021514997642</v>
       </c>
       <c r="L21" t="n">
         <v>159.3135097436781</v>
       </c>
       <c r="M21" t="n">
-        <v>393.272604166984</v>
+        <v>193.830070335818</v>
       </c>
       <c r="N21" t="n">
-        <v>508.2496061196524</v>
+        <v>204.8546211855834</v>
       </c>
       <c r="O21" t="n">
-        <v>508.2496061196524</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P21" t="n">
         <v>135.2021511783295</v>
       </c>
       <c r="Q21" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R21" t="n">
-        <v>91.45994347300703</v>
+        <v>2.601644001308799</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>73.03345707625814</v>
       </c>
       <c r="K22" t="n">
-        <v>231.1361780198369</v>
+        <v>252.7541555347077</v>
       </c>
       <c r="L22" t="n">
         <v>386.189138571012</v>
@@ -36290,13 +36290,13 @@
         <v>422.575232705859</v>
       </c>
       <c r="N22" t="n">
-        <v>75.57630507457377</v>
+        <v>410.9644883549632</v>
       </c>
       <c r="O22" t="n">
-        <v>379.7543828502619</v>
+        <v>61.49705010405932</v>
       </c>
       <c r="P22" t="n">
-        <v>308.3560827962572</v>
+        <v>269.6072547471996</v>
       </c>
       <c r="Q22" t="n">
         <v>135.8423097635546</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>84.06357613049289</v>
+        <v>132.1713892464653</v>
       </c>
       <c r="K23" t="n">
-        <v>146.7461759406912</v>
+        <v>779.4780212796048</v>
       </c>
       <c r="L23" t="n">
-        <v>357.8667608048684</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M23" t="n">
-        <v>1016.499212239305</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N23" t="n">
-        <v>1016.499212239305</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O23" t="n">
         <v>962.5723273855813</v>
       </c>
       <c r="P23" t="n">
-        <v>173.0110754914558</v>
+        <v>801.1621538421899</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.2170797724148</v>
+        <v>524.6559415405486</v>
       </c>
       <c r="R23" t="n">
         <v>157.4507537111131</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J24" t="n">
-        <v>42.36947993140225</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K24" t="n">
-        <v>104.3886180107997</v>
+        <v>267.343852028066</v>
       </c>
       <c r="L24" t="n">
         <v>159.3135097436781</v>
@@ -36448,19 +36448,19 @@
         <v>193.830070335818</v>
       </c>
       <c r="N24" t="n">
-        <v>1016.499212239305</v>
+        <v>204.8546211855834</v>
       </c>
       <c r="O24" t="n">
-        <v>288.3008333028634</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P24" t="n">
         <v>135.2021511783295</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R24" t="n">
-        <v>2.601644001308799</v>
+        <v>91.45994347300703</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K26" t="n">
-        <v>146.7461759406912</v>
+        <v>779.4780212796048</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.352782782864</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M26" t="n">
-        <v>1007.352782782864</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N26" t="n">
-        <v>668.8265466540432</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O26" t="n">
-        <v>219.2503735607024</v>
+        <v>962.5723273855813</v>
       </c>
       <c r="P26" t="n">
-        <v>173.0110754914558</v>
+        <v>801.1621538421899</v>
       </c>
       <c r="Q26" t="n">
-        <v>524.6559415405486</v>
+        <v>206.4709967201815</v>
       </c>
       <c r="R26" t="n">
         <v>157.4507537111131</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J27" t="n">
-        <v>42.36947993140225</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K27" t="n">
-        <v>620.6247606593531</v>
+        <v>267.3438520280661</v>
       </c>
       <c r="L27" t="n">
         <v>159.3135097436781</v>
@@ -36685,7 +36685,7 @@
         <v>193.830070335818</v>
       </c>
       <c r="N27" t="n">
-        <v>521.3935628535419</v>
+        <v>204.8546211855834</v>
       </c>
       <c r="O27" t="n">
         <v>178.3120405683756</v>
@@ -36694,7 +36694,7 @@
         <v>135.2021511783295</v>
       </c>
       <c r="Q27" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R27" t="n">
         <v>91.45994347300703</v>
@@ -36840,7 +36840,7 @@
         <v>1007.352782782864</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8756132366326</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N29" t="n">
         <v>237.9672303966777</v>
@@ -36852,10 +36852,10 @@
         <v>173.0110754914558</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.2170797724148</v>
+        <v>354.4936678483975</v>
       </c>
       <c r="R29" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J30" t="n">
         <v>288.4991809158803</v>
       </c>
       <c r="K30" t="n">
-        <v>104.3886180107997</v>
+        <v>267.3438520280661</v>
       </c>
       <c r="L30" t="n">
-        <v>745.9588930757119</v>
+        <v>159.3135097436781</v>
       </c>
       <c r="M30" t="n">
         <v>193.830070335818</v>
@@ -36931,7 +36931,7 @@
         <v>135.2021511783295</v>
       </c>
       <c r="Q30" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R30" t="n">
         <v>91.45994347300703</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K32" t="n">
-        <v>146.7461759406912</v>
+        <v>779.4780212796048</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.352782782864</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M32" t="n">
-        <v>583.3927816635047</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N32" t="n">
-        <v>1007.352782782864</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O32" t="n">
-        <v>219.2503735607024</v>
+        <v>962.5723273855813</v>
       </c>
       <c r="P32" t="n">
-        <v>801.1621538421899</v>
+        <v>482.9772090218229</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.2170797724148</v>
+        <v>524.6559415405486</v>
       </c>
       <c r="R32" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J33" t="n">
-        <v>42.36947993140225</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K33" t="n">
-        <v>620.6247606593531</v>
+        <v>267.3438520280661</v>
       </c>
       <c r="L33" t="n">
         <v>159.3135097436781</v>
@@ -37162,13 +37162,13 @@
         <v>204.8546211855834</v>
       </c>
       <c r="O33" t="n">
-        <v>494.8509822363339</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P33" t="n">
         <v>135.2021511783295</v>
       </c>
       <c r="Q33" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R33" t="n">
         <v>91.45994347300703</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K35" t="n">
         <v>146.7461759406912</v>
@@ -37314,22 +37314,22 @@
         <v>197.1477827444572</v>
       </c>
       <c r="M35" t="n">
-        <v>508.2496061196523</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N35" t="n">
-        <v>508.2496061196523</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O35" t="n">
-        <v>255.6058824197453</v>
+        <v>219.2503735607024</v>
       </c>
       <c r="P35" t="n">
         <v>173.0110754914558</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.2170797724148</v>
+        <v>234.4289524975466</v>
       </c>
       <c r="R35" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>13.61928365439002</v>
       </c>
       <c r="J36" t="n">
-        <v>42.36947993140225</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K36" t="n">
-        <v>104.3886180107997</v>
+        <v>356.2021514997642</v>
       </c>
       <c r="L36" t="n">
-        <v>334.1122090706886</v>
+        <v>159.3135097436781</v>
       </c>
       <c r="M36" t="n">
-        <v>508.2496061196523</v>
+        <v>193.830070335818</v>
       </c>
       <c r="N36" t="n">
         <v>204.8546211855834</v>
       </c>
       <c r="O36" t="n">
-        <v>508.2496061196523</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P36" t="n">
         <v>135.2021511783295</v>
       </c>
       <c r="Q36" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R36" t="n">
-        <v>91.45994347300703</v>
+        <v>2.601644001308799</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.37551401430219</v>
+        <v>73.03345707625814</v>
       </c>
       <c r="K37" t="n">
-        <v>44.39032362994593</v>
+        <v>252.7541555347077</v>
       </c>
       <c r="L37" t="n">
         <v>386.189138571012</v>
@@ -37475,10 +37475,10 @@
         <v>422.575232705859</v>
       </c>
       <c r="N37" t="n">
-        <v>327.9801025264206</v>
+        <v>372.2156603059055</v>
       </c>
       <c r="O37" t="n">
-        <v>379.7543828502619</v>
+        <v>61.49705010405932</v>
       </c>
       <c r="P37" t="n">
         <v>308.3560827962572</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K38" t="n">
         <v>146.7461759406912</v>
       </c>
       <c r="L38" t="n">
-        <v>508.2496061196523</v>
+        <v>197.1477827444572</v>
       </c>
       <c r="M38" t="n">
         <v>232.3205735685881</v>
@@ -37560,13 +37560,13 @@
         <v>219.2503735607024</v>
       </c>
       <c r="P38" t="n">
-        <v>444.4761692493424</v>
+        <v>173.0110754914558</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.2170797724148</v>
+        <v>234.4289524975466</v>
       </c>
       <c r="R38" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J39" t="n">
         <v>288.4991809158803</v>
       </c>
       <c r="K39" t="n">
-        <v>369.8214351541542</v>
+        <v>267.3438520280658</v>
       </c>
       <c r="L39" t="n">
         <v>159.3135097436781</v>
@@ -37645,7 +37645,7 @@
         <v>480.0284337744854</v>
       </c>
       <c r="R39" t="n">
-        <v>2.601644001308799</v>
+        <v>91.45994347300703</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7.37551401430219</v>
+        <v>73.03345707625814</v>
       </c>
       <c r="K40" t="n">
         <v>252.7541555347077</v>
@@ -37709,10 +37709,10 @@
         <v>386.189138571012</v>
       </c>
       <c r="M40" t="n">
-        <v>422.575232705859</v>
+        <v>74.12437461062112</v>
       </c>
       <c r="N40" t="n">
-        <v>119.6162706216588</v>
+        <v>410.9644883549632</v>
       </c>
       <c r="O40" t="n">
         <v>379.7543828502619</v>
@@ -37721,7 +37721,7 @@
         <v>308.3560827962572</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.8423097635546</v>
+        <v>127.2870070635321</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>146.7461759406912</v>
       </c>
       <c r="L41" t="n">
-        <v>197.1477827444572</v>
+        <v>503.7856673264747</v>
       </c>
       <c r="M41" t="n">
-        <v>232.3205735685881</v>
+        <v>508.2496061196523</v>
       </c>
       <c r="N41" t="n">
         <v>237.9672303966777</v>
       </c>
       <c r="O41" t="n">
-        <v>508.2496061196523</v>
+        <v>219.2503735607024</v>
       </c>
       <c r="P41" t="n">
         <v>173.0110754914558</v>
       </c>
       <c r="Q41" t="n">
-        <v>275.506312754485</v>
+        <v>110.2170797724148</v>
       </c>
       <c r="R41" t="n">
-        <v>157.4507537111131</v>
+        <v>29.17230211905141</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J42" t="n">
         <v>288.4991809158803</v>
       </c>
       <c r="K42" t="n">
-        <v>104.3886180107997</v>
+        <v>267.3438520280658</v>
       </c>
       <c r="L42" t="n">
         <v>159.3135097436781</v>
@@ -37873,13 +37873,13 @@
         <v>204.8546211855834</v>
       </c>
       <c r="O42" t="n">
-        <v>508.2496061196523</v>
+        <v>178.3120405683756</v>
       </c>
       <c r="P42" t="n">
-        <v>391.9099689590867</v>
+        <v>135.2021511783295</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.95756811410799</v>
+        <v>480.0284337744854</v>
       </c>
       <c r="R42" t="n">
         <v>91.45994347300703</v>
@@ -37940,10 +37940,10 @@
         <v>73.03345707625814</v>
       </c>
       <c r="K43" t="n">
-        <v>252.7541555347077</v>
+        <v>159.2808063284556</v>
       </c>
       <c r="L43" t="n">
-        <v>292.7157893647599</v>
+        <v>386.189138571012</v>
       </c>
       <c r="M43" t="n">
         <v>422.575232705859</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>84.06357613049289</v>
+        <v>414.1401689463809</v>
       </c>
       <c r="K44" t="n">
         <v>146.7461759406912</v>
@@ -38025,13 +38025,13 @@
         <v>197.1477827444572</v>
       </c>
       <c r="M44" t="n">
-        <v>508.2496061196523</v>
+        <v>232.3205735685881</v>
       </c>
       <c r="N44" t="n">
-        <v>255.6058824197453</v>
+        <v>237.9672303966777</v>
       </c>
       <c r="O44" t="n">
-        <v>508.2496061196523</v>
+        <v>343.4622462858341</v>
       </c>
       <c r="P44" t="n">
         <v>173.0110754914558</v>
@@ -38040,7 +38040,7 @@
         <v>110.2170797724148</v>
       </c>
       <c r="R44" t="n">
-        <v>29.17230211905141</v>
+        <v>157.4507537111131</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.61928365439002</v>
       </c>
       <c r="J45" t="n">
-        <v>61.21271047868382</v>
+        <v>288.4991809158803</v>
       </c>
       <c r="K45" t="n">
         <v>508.2496061196523</v>
@@ -38113,10 +38113,10 @@
         <v>178.3120405683756</v>
       </c>
       <c r="P45" t="n">
-        <v>135.2021511783295</v>
+        <v>304.3672627471207</v>
       </c>
       <c r="Q45" t="n">
-        <v>480.0284337744854</v>
+        <v>69.95756811410799</v>
       </c>
       <c r="R45" t="n">
         <v>91.45994347300703</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.37551401430219</v>
+        <v>73.03345707625814</v>
       </c>
       <c r="K46" t="n">
-        <v>224.9387493904115</v>
+        <v>252.7541555347077</v>
       </c>
       <c r="L46" t="n">
-        <v>386.189138571012</v>
+        <v>292.7157893647599</v>
       </c>
       <c r="M46" t="n">
         <v>422.575232705859</v>
